--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130983955</v>
+        <v>130983952</v>
       </c>
       <c r="B4" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -958,11 +958,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -970,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513615</v>
+        <v>513911</v>
       </c>
       <c r="R4" t="n">
-        <v>7098111</v>
+        <v>7097913</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,6 +1017,26 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1038,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130983952</v>
+        <v>130982570</v>
       </c>
       <c r="B5" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1084,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1076,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513911</v>
+        <v>513682</v>
       </c>
       <c r="R5" t="n">
-        <v>7097913</v>
+        <v>7098116</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1112,6 +1132,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad gammal asp med 60 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,10 +1189,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130983942</v>
+        <v>130983967</v>
       </c>
       <c r="B6" t="n">
-        <v>80344</v>
+        <v>83089</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1175,21 +1200,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1202,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513807</v>
+        <v>513599</v>
       </c>
       <c r="R6" t="n">
-        <v>7097941</v>
+        <v>7098012</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1253,6 +1278,26 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1270,10 +1315,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130982570</v>
+        <v>130983955</v>
       </c>
       <c r="B7" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1312,10 +1357,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513682</v>
+        <v>513615</v>
       </c>
       <c r="R7" t="n">
-        <v>7098116</v>
+        <v>7098111</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1350,11 +1395,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Växer här på en grovbarkad gammal asp med 60 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1368,26 +1408,6 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1405,10 +1425,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130982571</v>
+        <v>130983942</v>
       </c>
       <c r="B8" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1435,11 +1455,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1447,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>513700</v>
+        <v>513807</v>
       </c>
       <c r="R8" t="n">
-        <v>7098113</v>
+        <v>7097941</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1485,11 +1501,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Växer här på en grovbarkad gammal smal sälg.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1503,26 +1514,6 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1540,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130983967</v>
+        <v>130982571</v>
       </c>
       <c r="B9" t="n">
-        <v>83085</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1551,26 +1542,30 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1578,10 +1573,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>513599</v>
+        <v>513700</v>
       </c>
       <c r="R9" t="n">
-        <v>7098012</v>
+        <v>7098113</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1616,6 +1611,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad gammal smal sälg.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1633,12 +1633,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130983965</v>
+        <v>130983931</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1677,37 +1677,50 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513657</v>
+        <v>513518</v>
       </c>
       <c r="R10" t="n">
-        <v>7098140</v>
+        <v>7098104</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1742,39 +1755,23 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>I ett område med gott om aspar för bohål.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1792,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130983946</v>
+        <v>130983965</v>
       </c>
       <c r="B11" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1803,21 +1800,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1830,10 +1827,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>513642</v>
+        <v>513657</v>
       </c>
       <c r="R11" t="n">
-        <v>7097903</v>
+        <v>7098140</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1881,6 +1878,26 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1898,41 +1915,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130982555</v>
+        <v>130983946</v>
       </c>
       <c r="B12" t="n">
-        <v>80373</v>
+        <v>80348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1940,10 +1953,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>513918</v>
+        <v>513642</v>
       </c>
       <c r="R12" t="n">
-        <v>7097882</v>
+        <v>7097903</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1978,11 +1991,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Växer på en sälg med doftticka.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1996,26 +2004,6 @@
       <c r="AH12" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2033,39 +2021,39 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130983950</v>
+        <v>130982555</v>
       </c>
       <c r="B13" t="n">
-        <v>80344</v>
+        <v>80377</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2075,10 +2063,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>513635</v>
+        <v>513918</v>
       </c>
       <c r="R13" t="n">
-        <v>7098119</v>
+        <v>7097882</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2115,7 +2103,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Rikligt med bålar på asp och även gran.</t>
+          <t>Växer på en sälg med doftticka.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2135,12 +2123,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2150,7 +2138,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2168,10 +2156,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130983949</v>
+        <v>130983950</v>
       </c>
       <c r="B14" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2210,10 +2198,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>513607</v>
+        <v>513635</v>
       </c>
       <c r="R14" t="n">
-        <v>7098113</v>
+        <v>7098119</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2250,7 +2238,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Rikligt med lunglavsbålar på asp.</t>
+          <t>Rikligt med bålar på asp och även gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2303,10 +2291,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983931</v>
+        <v>130983949</v>
       </c>
       <c r="B15" t="n">
-        <v>57877</v>
+        <v>80348</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2314,50 +2302,41 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>513518</v>
+        <v>513607</v>
       </c>
       <c r="R15" t="n">
-        <v>7098104</v>
+        <v>7098113</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2394,7 +2373,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>I ett område med gott om aspar för bohål.</t>
+          <t>Rikligt med lunglavsbålar på asp.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2403,12 +2382,33 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
         <v>130982558</v>
       </c>
       <c r="B16" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983959</v>
+        <v>130982556</v>
       </c>
       <c r="B17" t="n">
-        <v>78251</v>
+        <v>80349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2567,26 +2567,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2594,10 +2598,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>513749</v>
+        <v>513803</v>
       </c>
       <c r="R17" t="n">
-        <v>7097845</v>
+        <v>7097938</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2632,6 +2636,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På en levande gammal skadad sälg.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2649,12 +2658,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
@@ -2664,7 +2673,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2682,10 +2691,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130982556</v>
+        <v>130983928</v>
       </c>
       <c r="B18" t="n">
-        <v>80345</v>
+        <v>58043</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2693,41 +2702,50 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513803</v>
+        <v>513873</v>
       </c>
       <c r="R18" t="n">
-        <v>7097938</v>
+        <v>7097763</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2764,7 +2782,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På en levande gammal skadad sälg.</t>
+          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2773,33 +2791,12 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2817,10 +2814,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130983928</v>
+        <v>130983959</v>
       </c>
       <c r="B19" t="n">
-        <v>58039</v>
+        <v>78255</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2828,50 +2825,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>228579</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>513873</v>
+        <v>513749</v>
       </c>
       <c r="R19" t="n">
-        <v>7097763</v>
+        <v>7097845</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2906,23 +2890,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2943,7 +2943,7 @@
         <v>130982597</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>130982575</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>130982590</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>130982586</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>130982567</v>
       </c>
       <c r="B24" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>130982593</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130982568</v>
+        <v>130982598</v>
       </c>
       <c r="B26" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3696,30 +3696,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3727,10 +3723,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>513722</v>
+        <v>513708</v>
       </c>
       <c r="R26" t="n">
-        <v>7098087</v>
+        <v>7098110</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3782,22 +3778,17 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3815,10 +3806,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130983944</v>
+        <v>130982568</v>
       </c>
       <c r="B27" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3847,7 +3838,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -3857,10 +3848,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>513823</v>
+        <v>513722</v>
       </c>
       <c r="R27" t="n">
-        <v>7097896</v>
+        <v>7098087</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3895,11 +3886,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apotechier.</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3913,6 +3899,26 @@
       <c r="AH27" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3930,10 +3936,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130982598</v>
+        <v>130983944</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3941,26 +3947,30 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3968,10 +3978,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>513708</v>
+        <v>513823</v>
       </c>
       <c r="R28" t="n">
-        <v>7098110</v>
+        <v>7097896</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4006,6 +4016,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apotechier.</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4019,21 +4034,6 @@
       <c r="AH28" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         <v>130983963</v>
       </c>
       <c r="B29" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>130982561</v>
       </c>
       <c r="B30" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>130982577</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>130982583</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130982559</v>
+        <v>130982587</v>
       </c>
       <c r="B33" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4545,30 +4545,26 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4576,10 +4572,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>513918</v>
+        <v>513762</v>
       </c>
       <c r="R33" t="n">
-        <v>7097882</v>
+        <v>7097721</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4614,11 +4610,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Fertil lunglav på en gammal sälg med doftticka.</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4636,22 +4627,17 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4669,10 +4655,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130982587</v>
+        <v>130982585</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4707,10 +4693,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>513762</v>
+        <v>513767</v>
       </c>
       <c r="R34" t="n">
-        <v>7097721</v>
+        <v>7097794</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4745,6 +4731,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4770,9 +4761,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4790,41 +4786,37 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130983958</v>
+        <v>130982595</v>
       </c>
       <c r="B35" t="n">
-        <v>80380</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4832,10 +4824,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>513915</v>
+        <v>513525</v>
       </c>
       <c r="R35" t="n">
-        <v>7097830</v>
+        <v>7098059</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4870,6 +4862,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer på en relativt grov gran i gammal granskog.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4887,22 +4884,17 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4920,10 +4912,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130982585</v>
+        <v>130982592</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4949,19 +4941,16 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>513767</v>
+        <v>513705</v>
       </c>
       <c r="R36" t="n">
-        <v>7097794</v>
+        <v>7098025</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4998,7 +4987,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5007,34 +4996,8 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -5051,10 +5014,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130982595</v>
+        <v>130982562</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5062,26 +5025,30 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5089,10 +5056,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>513525</v>
+        <v>513609</v>
       </c>
       <c r="R37" t="n">
-        <v>7098059</v>
+        <v>7098065</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5129,7 +5096,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Växer på en relativt grov gran i gammal granskog.</t>
+          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5149,17 +5116,22 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5177,10 +5149,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130982562</v>
+        <v>130982559</v>
       </c>
       <c r="B38" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5219,10 +5191,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>513609</v>
+        <v>513918</v>
       </c>
       <c r="R38" t="n">
-        <v>7098065</v>
+        <v>7097882</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5259,7 +5231,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
+          <t>Fertil lunglav på en gammal sälg med doftticka.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5279,12 +5251,12 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
@@ -5294,7 +5266,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5312,45 +5284,52 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130982592</v>
+        <v>130983958</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>80384</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>513705</v>
+        <v>513915</v>
       </c>
       <c r="R39" t="n">
-        <v>7098025</v>
+        <v>7097830</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5385,19 +5364,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5417,7 +5417,7 @@
         <v>130982578</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>130983930</v>
       </c>
       <c r="B41" t="n">
-        <v>91815</v>
+        <v>91819</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>130983956</v>
       </c>
       <c r="B42" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>130983937</v>
       </c>
       <c r="B43" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>130982565</v>
       </c>
       <c r="B44" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130983933</v>
+        <v>130982600</v>
       </c>
       <c r="B45" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6038,21 +6038,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -6065,10 +6065,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>514081</v>
+        <v>513799</v>
       </c>
       <c r="R45" t="n">
-        <v>7097679</v>
+        <v>7098152</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6103,6 +6103,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
@@ -6120,22 +6125,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6153,10 +6158,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130982600</v>
+        <v>130983918</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6164,21 +6169,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6191,10 +6196,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>513799</v>
+        <v>513544</v>
       </c>
       <c r="R46" t="n">
-        <v>7098152</v>
+        <v>7098096</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6229,11 +6234,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6261,12 +6261,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130983918</v>
+        <v>130983933</v>
       </c>
       <c r="B47" t="n">
-        <v>83219</v>
+        <v>80348</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6295,21 +6295,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6322,10 +6322,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>513544</v>
+        <v>514081</v>
       </c>
       <c r="R47" t="n">
-        <v>7098096</v>
+        <v>7097679</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6377,12 +6377,12 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
         <v>130983938</v>
       </c>
       <c r="B48" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>130983960</v>
       </c>
       <c r="B49" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>130983929</v>
       </c>
       <c r="B50" t="n">
-        <v>91815</v>
+        <v>91819</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>130982589</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>130982584</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -7017,10 +7017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983941</v>
+        <v>130982576</v>
       </c>
       <c r="B53" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7028,30 +7028,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -7059,10 +7055,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>513788</v>
+        <v>514066</v>
       </c>
       <c r="R53" t="n">
-        <v>7097977</v>
+        <v>7097722</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7097,6 +7093,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
@@ -7110,6 +7111,21 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7127,10 +7143,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983922</v>
+        <v>130982579</v>
       </c>
       <c r="B54" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7138,31 +7154,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7170,10 +7181,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>513814</v>
+        <v>513930</v>
       </c>
       <c r="R54" t="n">
-        <v>7097864</v>
+        <v>7097853</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7208,17 +7219,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -7239,12 +7246,12 @@
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7262,10 +7269,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130983925</v>
+        <v>130982574</v>
       </c>
       <c r="B55" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7273,31 +7280,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7305,10 +7307,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>513740</v>
+        <v>514157</v>
       </c>
       <c r="R55" t="n">
-        <v>7098029</v>
+        <v>7097713</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7343,17 +7345,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7374,12 +7372,12 @@
       </c>
       <c r="AM55" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7397,10 +7395,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130982576</v>
+        <v>130982560</v>
       </c>
       <c r="B56" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7408,26 +7406,30 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7435,10 +7437,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>514066</v>
+        <v>513804</v>
       </c>
       <c r="R56" t="n">
-        <v>7097722</v>
+        <v>7097938</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7475,7 +7477,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På en levande gammal skadad sälg.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7495,17 +7497,22 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7523,10 +7530,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130983962</v>
+        <v>130983957</v>
       </c>
       <c r="B57" t="n">
-        <v>91824</v>
+        <v>80348</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7534,26 +7541,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7561,10 +7568,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>514120</v>
+        <v>513674</v>
       </c>
       <c r="R57" t="n">
-        <v>7097669</v>
+        <v>7098138</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7597,6 +7604,11 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Växer här på gran.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7644,10 +7656,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130983964</v>
+        <v>130983941</v>
       </c>
       <c r="B58" t="n">
-        <v>91824</v>
+        <v>80348</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7655,24 +7667,28 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -7682,10 +7698,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>513717</v>
+        <v>513788</v>
       </c>
       <c r="R58" t="n">
-        <v>7098039</v>
+        <v>7097977</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7733,21 +7749,6 @@
       <c r="AH58" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7765,10 +7766,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130982579</v>
+        <v>130983951</v>
       </c>
       <c r="B59" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7776,21 +7777,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7803,10 +7804,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>513930</v>
+        <v>513656</v>
       </c>
       <c r="R59" t="n">
-        <v>7097853</v>
+        <v>7098142</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7841,6 +7842,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>På björk.</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
@@ -7858,22 +7864,22 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AM59" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Betula</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7891,10 +7897,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130982560</v>
+        <v>130983922</v>
       </c>
       <c r="B60" t="n">
-        <v>80344</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7902,28 +7908,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -7933,10 +7940,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>513804</v>
+        <v>513814</v>
       </c>
       <c r="R60" t="n">
-        <v>7097938</v>
+        <v>7097864</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7973,7 +7980,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>På en levande gammal skadad sälg.</t>
+          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7982,7 +7989,6 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7993,22 +7999,22 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM60" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8026,10 +8032,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130983957</v>
+        <v>130983962</v>
       </c>
       <c r="B61" t="n">
-        <v>80344</v>
+        <v>91828</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8037,26 +8043,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8064,10 +8070,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>513674</v>
+        <v>514120</v>
       </c>
       <c r="R61" t="n">
-        <v>7098138</v>
+        <v>7097669</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8100,11 +8106,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Växer här på gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8152,10 +8153,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130982574</v>
+        <v>130983964</v>
       </c>
       <c r="B62" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8163,26 +8164,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8190,10 +8191,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>514157</v>
+        <v>513717</v>
       </c>
       <c r="R62" t="n">
-        <v>7097713</v>
+        <v>7098039</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8253,14 +8254,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8278,10 +8274,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130983951</v>
+        <v>130983925</v>
       </c>
       <c r="B63" t="n">
-        <v>80344</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8289,26 +8285,31 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8316,10 +8317,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>513656</v>
+        <v>513740</v>
       </c>
       <c r="R63" t="n">
-        <v>7098142</v>
+        <v>7098029</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8356,7 +8357,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>På björk.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8365,7 +8366,6 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8376,22 +8376,22 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM63" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Betula</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8409,41 +8409,37 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130983968</v>
+        <v>130983935</v>
       </c>
       <c r="B64" t="n">
-        <v>92403</v>
+        <v>80348</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8451,10 +8447,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>513808</v>
+        <v>513918</v>
       </c>
       <c r="R64" t="n">
-        <v>7097938</v>
+        <v>7097829</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8489,11 +8485,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp.</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
@@ -8511,27 +8502,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL64" t="inlineStr">
-        <is>
-          <t>En gammal grovbarkig skadad sälg.</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8549,37 +8535,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130983935</v>
+        <v>130983968</v>
       </c>
       <c r="B65" t="n">
-        <v>80344</v>
+        <v>92407</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8587,10 +8577,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>513918</v>
+        <v>513808</v>
       </c>
       <c r="R65" t="n">
-        <v>7097829</v>
+        <v>7097938</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8625,6 +8615,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Minst 1 fruktkropp.</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8642,22 +8637,27 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8678,7 +8678,7 @@
         <v>130982580</v>
       </c>
       <c r="B66" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>130982588</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8922,10 +8922,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130983919</v>
+        <v>130982569</v>
       </c>
       <c r="B68" t="n">
-        <v>91804</v>
+        <v>80348</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8933,28 +8933,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -8964,10 +8964,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>513795</v>
+        <v>513717</v>
       </c>
       <c r="R68" t="n">
-        <v>7097973</v>
+        <v>7098092</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9019,22 +9019,22 @@
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130982569</v>
+        <v>130983919</v>
       </c>
       <c r="B69" t="n">
-        <v>80344</v>
+        <v>91808</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9063,28 +9063,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -9094,10 +9094,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>513717</v>
+        <v>513795</v>
       </c>
       <c r="R69" t="n">
-        <v>7098092</v>
+        <v>7097973</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9149,22 +9149,22 @@
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9185,7 +9185,7 @@
         <v>130982599</v>
       </c>
       <c r="B70" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>130983924</v>
       </c>
       <c r="B71" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>130982564</v>
       </c>
       <c r="B72" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>130982566</v>
       </c>
       <c r="B73" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9704,40 +9704,39 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130983927</v>
+        <v>130982602</v>
       </c>
       <c r="B74" t="n">
-        <v>57880</v>
+        <v>92407</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9747,10 +9746,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>513553</v>
+        <v>513918</v>
       </c>
       <c r="R74" t="n">
-        <v>7097986</v>
+        <v>7097881</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9787,7 +9786,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9796,6 +9795,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9806,12 +9806,12 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Salix caprea</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9839,39 +9839,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130982602</v>
+        <v>130983927</v>
       </c>
       <c r="B75" t="n">
-        <v>92403</v>
+        <v>57884</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -9881,10 +9882,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>513918</v>
+        <v>513553</v>
       </c>
       <c r="R75" t="n">
-        <v>7097881</v>
+        <v>7097986</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9921,7 +9922,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9930,7 +9931,6 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -9941,12 +9941,12 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM75" t="inlineStr">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9974,10 +9974,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130983923</v>
+        <v>130982596</v>
       </c>
       <c r="B76" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9985,46 +9985,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>513799</v>
+        <v>513544</v>
       </c>
       <c r="R76" t="n">
-        <v>7097850</v>
+        <v>7098021</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10061,7 +10052,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Äldre bohål, 47-50 mm i diameter. Välsnidat och uthackat i en grantickerötad högstubbe, ca 1,8 m över marken.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -10070,6 +10061,7 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -10088,14 +10080,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10116,7 +10103,7 @@
         <v>130983936</v>
       </c>
       <c r="B77" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10246,7 +10233,7 @@
         <v>130982563</v>
       </c>
       <c r="B78" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -10381,7 +10368,7 @@
         <v>130983948</v>
       </c>
       <c r="B79" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -10487,7 +10474,7 @@
         <v>130983953</v>
       </c>
       <c r="B80" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -10613,7 +10600,7 @@
         <v>130983954</v>
       </c>
       <c r="B81" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10723,7 +10710,7 @@
         <v>130983940</v>
       </c>
       <c r="B82" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -10826,10 +10813,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>130982596</v>
+        <v>130983923</v>
       </c>
       <c r="B83" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -10837,37 +10824,46 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>513544</v>
+        <v>513799</v>
       </c>
       <c r="R83" t="n">
-        <v>7098021</v>
+        <v>7097850</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10904,7 +10900,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Äldre bohål, 47-50 mm i diameter. Välsnidat och uthackat i en grantickerötad högstubbe, ca 1,8 m över marken.</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10913,7 +10909,6 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -10932,9 +10927,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -10952,48 +10952,45 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>130983970</v>
+        <v>130982591</v>
       </c>
       <c r="B84" t="n">
-        <v>79495</v>
+        <v>79243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6459</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>513622</v>
+        <v>513751</v>
       </c>
       <c r="R84" t="n">
-        <v>7097901</v>
+        <v>7097964</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -11028,40 +11025,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
-      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
-      </c>
-      <c r="AH84" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ84" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK84" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM84" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
@@ -11078,45 +11054,48 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>130982591</v>
+        <v>130983970</v>
       </c>
       <c r="B85" t="n">
-        <v>79239</v>
+        <v>79499</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6425</v>
+        <v>6459</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>513751</v>
+        <v>513622</v>
       </c>
       <c r="R85" t="n">
-        <v>7097964</v>
+        <v>7097901</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -11151,19 +11130,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
@@ -11180,10 +11180,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>130983966</v>
+        <v>130982581</v>
       </c>
       <c r="B86" t="n">
-        <v>83085</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11191,21 +11191,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>514082</v>
+        <v>513849</v>
       </c>
       <c r="R86" t="n">
-        <v>7097678</v>
+        <v>7098012</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -11256,6 +11256,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -11283,12 +11288,12 @@
       </c>
       <c r="AM86" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -11306,10 +11311,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>130982581</v>
+        <v>130982557</v>
       </c>
       <c r="B87" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -11317,26 +11322,30 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
@@ -11344,10 +11353,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>513849</v>
+        <v>514098</v>
       </c>
       <c r="R87" t="n">
-        <v>7098012</v>
+        <v>7097694</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -11382,11 +11391,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
@@ -11404,22 +11408,22 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -11437,10 +11441,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>130982557</v>
+        <v>130983939</v>
       </c>
       <c r="B88" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -11479,10 +11483,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>514098</v>
+        <v>513790</v>
       </c>
       <c r="R88" t="n">
-        <v>7097694</v>
+        <v>7097963</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -11530,26 +11534,6 @@
       <c r="AH88" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -11567,10 +11551,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>130983939</v>
+        <v>130983966</v>
       </c>
       <c r="B89" t="n">
-        <v>80344</v>
+        <v>83089</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -11578,30 +11562,26 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
@@ -11609,10 +11589,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>513790</v>
+        <v>514082</v>
       </c>
       <c r="R89" t="n">
-        <v>7097963</v>
+        <v>7097678</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -11660,6 +11640,26 @@
       <c r="AH89" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>130983926</v>
+        <v>130983943</v>
       </c>
       <c r="B90" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11688,31 +11688,26 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
@@ -11720,10 +11715,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>513667</v>
+        <v>513818</v>
       </c>
       <c r="R90" t="n">
-        <v>7097967</v>
+        <v>7097946</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11758,43 +11753,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD90" t="b">
         <v>0</v>
       </c>
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
       <c r="AH90" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK90" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM90" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO90" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr"/>
@@ -11812,10 +11783,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>130983921</v>
+        <v>130983947</v>
       </c>
       <c r="B91" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -11823,29 +11794,28 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -11855,10 +11825,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>513913</v>
+        <v>513666</v>
       </c>
       <c r="R91" t="n">
-        <v>7097903</v>
+        <v>7098043</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11895,7 +11865,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Rikligt med lunglav på gran.</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11904,6 +11874,7 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11914,22 +11885,22 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM91" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -11947,32 +11918,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130982582</v>
+        <v>130983971</v>
       </c>
       <c r="B92" t="n">
-        <v>79239</v>
+        <v>79499</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>6459</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11985,10 +11956,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>513803</v>
+        <v>513579</v>
       </c>
       <c r="R92" t="n">
-        <v>7097902</v>
+        <v>7098048</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -12023,11 +11994,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD92" t="b">
         <v>0</v>
       </c>
@@ -12045,17 +12011,22 @@
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr"/>
@@ -12073,10 +12044,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>130983943</v>
+        <v>130983945</v>
       </c>
       <c r="B93" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -12111,10 +12082,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>513818</v>
+        <v>513618</v>
       </c>
       <c r="R93" t="n">
-        <v>7097946</v>
+        <v>7097900</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -12179,10 +12150,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>130983947</v>
+        <v>130982582</v>
       </c>
       <c r="B94" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -12190,30 +12161,26 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
@@ -12221,10 +12188,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>513666</v>
+        <v>513803</v>
       </c>
       <c r="R94" t="n">
-        <v>7098043</v>
+        <v>7097902</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -12261,7 +12228,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -12289,14 +12256,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO94" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr"/>
@@ -12314,37 +12276,42 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130983971</v>
+        <v>130983926</v>
       </c>
       <c r="B95" t="n">
-        <v>79495</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6459</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
@@ -12352,10 +12319,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>513579</v>
+        <v>513667</v>
       </c>
       <c r="R95" t="n">
-        <v>7098048</v>
+        <v>7097967</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -12390,13 +12357,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -12407,22 +12378,22 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM95" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr"/>
@@ -12440,10 +12411,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130983945</v>
+        <v>130983921</v>
       </c>
       <c r="B96" t="n">
-        <v>80344</v>
+        <v>57884</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -12451,26 +12422,31 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -12478,10 +12454,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>513618</v>
+        <v>513913</v>
       </c>
       <c r="R96" t="n">
-        <v>7097900</v>
+        <v>7097903</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -12516,19 +12492,43 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på tall.</t>
+        </is>
+      </c>
       <c r="AD96" t="b">
         <v>0</v>
       </c>
       <c r="AE96" t="b">
         <v>0</v>
       </c>
-      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
       <c r="AH96" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr"/>

--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -3564,10 +3564,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130982593</v>
+        <v>130982568</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3575,26 +3575,30 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3602,10 +3606,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>513648</v>
+        <v>513722</v>
       </c>
       <c r="R25" t="n">
-        <v>7098006</v>
+        <v>7098087</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3657,17 +3661,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3685,10 +3694,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130982598</v>
+        <v>130983944</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3696,26 +3705,30 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3723,10 +3736,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>513708</v>
+        <v>513823</v>
       </c>
       <c r="R26" t="n">
-        <v>7098110</v>
+        <v>7097896</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3761,6 +3774,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apotechier.</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3774,21 +3792,6 @@
       <c r="AH26" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3806,10 +3809,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130982568</v>
+        <v>130982593</v>
       </c>
       <c r="B27" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3817,30 +3820,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3848,10 +3847,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>513722</v>
+        <v>513648</v>
       </c>
       <c r="R27" t="n">
-        <v>7098087</v>
+        <v>7098006</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3903,22 +3902,17 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3936,10 +3930,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130983944</v>
+        <v>130982598</v>
       </c>
       <c r="B28" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3947,30 +3941,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3978,10 +3968,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>513823</v>
+        <v>513708</v>
       </c>
       <c r="R28" t="n">
-        <v>7097896</v>
+        <v>7098110</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4016,11 +4006,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apotechier.</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4034,6 +4019,21 @@
       <c r="AH28" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130982562</v>
+        <v>130982559</v>
       </c>
       <c r="B37" t="n">
         <v>80348</v>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>513609</v>
+        <v>513918</v>
       </c>
       <c r="R37" t="n">
-        <v>7098065</v>
+        <v>7097882</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
+          <t>Fertil lunglav på en gammal sälg med doftticka.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5149,32 +5149,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130982559</v>
+        <v>130983958</v>
       </c>
       <c r="B38" t="n">
-        <v>80348</v>
+        <v>80384</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>513918</v>
+        <v>513915</v>
       </c>
       <c r="R38" t="n">
-        <v>7097882</v>
+        <v>7097830</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5229,11 +5229,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Fertil lunglav på en gammal sälg med doftticka.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -5251,12 +5246,12 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
@@ -5266,7 +5261,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5284,32 +5279,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983958</v>
+        <v>130982562</v>
       </c>
       <c r="B39" t="n">
-        <v>80384</v>
+        <v>80348</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5326,10 +5321,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>513915</v>
+        <v>513609</v>
       </c>
       <c r="R39" t="n">
-        <v>7097830</v>
+        <v>7098065</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5364,6 +5359,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
@@ -5381,12 +5381,12 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130982600</v>
+        <v>130983960</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6038,26 +6038,30 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6065,10 +6069,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>513799</v>
+        <v>513513</v>
       </c>
       <c r="R45" t="n">
-        <v>7098152</v>
+        <v>7098096</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6103,11 +6107,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
@@ -6133,14 +6132,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6158,10 +6152,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130983918</v>
+        <v>130982600</v>
       </c>
       <c r="B46" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6169,21 +6163,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6196,10 +6190,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>513544</v>
+        <v>513799</v>
       </c>
       <c r="R46" t="n">
-        <v>7098096</v>
+        <v>7098152</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6234,6 +6228,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6261,12 +6260,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6284,10 +6283,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130983933</v>
+        <v>130983918</v>
       </c>
       <c r="B47" t="n">
-        <v>80348</v>
+        <v>83223</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6295,21 +6294,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6322,10 +6321,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>514081</v>
+        <v>513544</v>
       </c>
       <c r="R47" t="n">
-        <v>7097679</v>
+        <v>7098096</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6377,12 +6376,12 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
@@ -6392,7 +6391,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6410,7 +6409,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983938</v>
+        <v>130983933</v>
       </c>
       <c r="B48" t="n">
         <v>80348</v>
@@ -6440,11 +6439,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6452,10 +6447,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>513777</v>
+        <v>514081</v>
       </c>
       <c r="R48" t="n">
-        <v>7097981</v>
+        <v>7097679</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6503,6 +6498,26 @@
       <c r="AH48" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6520,10 +6535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983960</v>
+        <v>130983938</v>
       </c>
       <c r="B49" t="n">
-        <v>91804</v>
+        <v>80348</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6531,28 +6546,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6562,10 +6577,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>513513</v>
+        <v>513777</v>
       </c>
       <c r="R49" t="n">
-        <v>7098096</v>
+        <v>7097981</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6613,21 +6628,6 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -7017,10 +7017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130982576</v>
+        <v>130983962</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7028,26 +7028,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>514066</v>
+        <v>514120</v>
       </c>
       <c r="R53" t="n">
-        <v>7097722</v>
+        <v>7097669</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7091,11 +7091,6 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7143,10 +7138,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130982579</v>
+        <v>130983964</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7154,26 +7149,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7181,10 +7176,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>513930</v>
+        <v>513717</v>
       </c>
       <c r="R54" t="n">
-        <v>7097853</v>
+        <v>7098039</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7244,14 +7239,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7269,7 +7259,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130982574</v>
+        <v>130982576</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -7307,10 +7297,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>514157</v>
+        <v>514066</v>
       </c>
       <c r="R55" t="n">
-        <v>7097713</v>
+        <v>7097722</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7345,6 +7335,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -7370,14 +7365,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7395,10 +7385,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130982560</v>
+        <v>130982579</v>
       </c>
       <c r="B56" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7406,30 +7396,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7437,10 +7423,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>513804</v>
+        <v>513930</v>
       </c>
       <c r="R56" t="n">
-        <v>7097938</v>
+        <v>7097853</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7475,11 +7461,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>På en levande gammal skadad sälg.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -7497,22 +7478,22 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7530,10 +7511,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130983957</v>
+        <v>130982574</v>
       </c>
       <c r="B57" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7541,21 +7522,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7568,10 +7549,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>513674</v>
+        <v>514157</v>
       </c>
       <c r="R57" t="n">
-        <v>7098138</v>
+        <v>7097713</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7606,11 +7587,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Växer här på gran.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7636,9 +7612,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7656,7 +7637,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130983941</v>
+        <v>130982560</v>
       </c>
       <c r="B58" t="n">
         <v>80348</v>
@@ -7698,10 +7679,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>513788</v>
+        <v>513804</v>
       </c>
       <c r="R58" t="n">
-        <v>7097977</v>
+        <v>7097938</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7736,6 +7717,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>På en levande gammal skadad sälg.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -7749,6 +7735,26 @@
       <c r="AH58" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7766,7 +7772,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130983951</v>
+        <v>130983957</v>
       </c>
       <c r="B59" t="n">
         <v>80348</v>
@@ -7804,10 +7810,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>513656</v>
+        <v>513674</v>
       </c>
       <c r="R59" t="n">
-        <v>7098142</v>
+        <v>7098138</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7844,7 +7850,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På björk.</t>
+          <t>Växer här på gran.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7864,22 +7870,17 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7897,10 +7898,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130983922</v>
+        <v>130983941</v>
       </c>
       <c r="B60" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7908,29 +7909,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>513814</v>
+        <v>513788</v>
       </c>
       <c r="R60" t="n">
-        <v>7097864</v>
+        <v>7097977</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7978,43 +7978,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ60" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8032,10 +8008,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130983962</v>
+        <v>130983951</v>
       </c>
       <c r="B61" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8043,26 +8019,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8070,10 +8046,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>514120</v>
+        <v>513656</v>
       </c>
       <c r="R61" t="n">
-        <v>7097669</v>
+        <v>7098142</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8108,6 +8084,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>På björk.</t>
+        </is>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
@@ -8125,17 +8106,22 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Betula</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8153,10 +8139,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130983964</v>
+        <v>130983925</v>
       </c>
       <c r="B62" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8164,24 +8150,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -8191,10 +8182,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>513717</v>
+        <v>513740</v>
       </c>
       <c r="R62" t="n">
-        <v>7098039</v>
+        <v>7098029</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8229,13 +8220,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8254,9 +8249,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130983925</v>
+        <v>130983922</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -8307,7 +8307,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>513740</v>
+        <v>513814</v>
       </c>
       <c r="R63" t="n">
-        <v>7098029</v>
+        <v>7097864</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8922,10 +8922,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130982569</v>
+        <v>130982599</v>
       </c>
       <c r="B68" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8933,30 +8933,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8964,10 +8960,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>513717</v>
+        <v>513707</v>
       </c>
       <c r="R68" t="n">
-        <v>7098092</v>
+        <v>7098128</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9002,6 +8998,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
@@ -9019,22 +9020,17 @@
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -9052,10 +9048,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130983919</v>
+        <v>130982569</v>
       </c>
       <c r="B69" t="n">
-        <v>91808</v>
+        <v>80348</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9063,28 +9059,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -9094,10 +9090,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>513795</v>
+        <v>513717</v>
       </c>
       <c r="R69" t="n">
-        <v>7097973</v>
+        <v>7098092</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9149,22 +9145,22 @@
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9182,10 +9178,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130982599</v>
+        <v>130983919</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9193,26 +9189,30 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>513707</v>
+        <v>513795</v>
       </c>
       <c r="R70" t="n">
-        <v>7098128</v>
+        <v>7097973</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9258,11 +9258,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -9288,9 +9283,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>

--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130983952</v>
+        <v>130983967</v>
       </c>
       <c r="B4" t="n">
-        <v>80348</v>
+        <v>83089</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -939,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513911</v>
+        <v>513599</v>
       </c>
       <c r="R4" t="n">
-        <v>7097913</v>
+        <v>7098012</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130982570</v>
+        <v>130983955</v>
       </c>
       <c r="B5" t="n">
         <v>80348</v>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513682</v>
+        <v>513615</v>
       </c>
       <c r="R5" t="n">
-        <v>7098116</v>
+        <v>7098111</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1134,11 +1134,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Växer här på en grovbarkad gammal asp med 60 cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1152,26 +1147,6 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1189,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130983967</v>
+        <v>130983952</v>
       </c>
       <c r="B6" t="n">
-        <v>83089</v>
+        <v>80348</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1200,21 +1175,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513599</v>
+        <v>513911</v>
       </c>
       <c r="R6" t="n">
-        <v>7098012</v>
+        <v>7097913</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,12 +1257,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1297,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1315,7 +1290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130983955</v>
+        <v>130983942</v>
       </c>
       <c r="B7" t="n">
         <v>80348</v>
@@ -1345,11 +1320,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1357,10 +1328,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513615</v>
+        <v>513807</v>
       </c>
       <c r="R7" t="n">
-        <v>7098111</v>
+        <v>7097941</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1425,7 +1396,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130983942</v>
+        <v>130982570</v>
       </c>
       <c r="B8" t="n">
         <v>80348</v>
@@ -1455,7 +1426,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1463,10 +1438,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>513807</v>
+        <v>513682</v>
       </c>
       <c r="R8" t="n">
-        <v>7097941</v>
+        <v>7098116</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,6 +1476,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad gammal asp med 60 cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1514,6 +1494,26 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983928</v>
+        <v>130983959</v>
       </c>
       <c r="B18" t="n">
-        <v>58043</v>
+        <v>78255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2702,50 +2702,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513873</v>
+        <v>513749</v>
       </c>
       <c r="R18" t="n">
-        <v>7097763</v>
+        <v>7097845</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2780,23 +2767,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2814,10 +2817,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130983959</v>
+        <v>130983928</v>
       </c>
       <c r="B19" t="n">
-        <v>78255</v>
+        <v>58043</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2825,37 +2828,50 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228579</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>513749</v>
+        <v>513873</v>
       </c>
       <c r="R19" t="n">
-        <v>7097845</v>
+        <v>7097763</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2890,39 +2906,23 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130982568</v>
+        <v>130982593</v>
       </c>
       <c r="B25" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3575,30 +3575,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3606,10 +3602,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>513722</v>
+        <v>513648</v>
       </c>
       <c r="R25" t="n">
-        <v>7098087</v>
+        <v>7098006</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3661,22 +3657,17 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3694,7 +3685,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983944</v>
+        <v>130982568</v>
       </c>
       <c r="B26" t="n">
         <v>80348</v>
@@ -3726,7 +3717,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -3736,10 +3727,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>513823</v>
+        <v>513722</v>
       </c>
       <c r="R26" t="n">
-        <v>7097896</v>
+        <v>7098087</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3774,11 +3765,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apotechier.</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3792,6 +3778,26 @@
       <c r="AH26" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3809,10 +3815,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130982593</v>
+        <v>130983944</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3820,26 +3826,30 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3847,10 +3857,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>513648</v>
+        <v>513823</v>
       </c>
       <c r="R27" t="n">
-        <v>7098006</v>
+        <v>7097896</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3885,6 +3895,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apotechier.</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3898,21 +3913,6 @@
       <c r="AH27" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130983963</v>
+        <v>130982561</v>
       </c>
       <c r="B29" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4062,24 +4062,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -4089,10 +4093,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>513798</v>
+        <v>513545</v>
       </c>
       <c r="R29" t="n">
-        <v>7097846</v>
+        <v>7098028</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4144,17 +4148,22 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4172,10 +4181,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130982561</v>
+        <v>130983963</v>
       </c>
       <c r="B30" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4183,28 +4192,24 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4214,10 +4219,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>513545</v>
+        <v>513798</v>
       </c>
       <c r="R30" t="n">
-        <v>7098028</v>
+        <v>7097846</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4269,22 +4274,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130982587</v>
+        <v>130982559</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4545,26 +4545,30 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4572,10 +4576,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>513762</v>
+        <v>513918</v>
       </c>
       <c r="R33" t="n">
-        <v>7097721</v>
+        <v>7097882</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4610,6 +4614,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Fertil lunglav på en gammal sälg med doftticka.</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4627,17 +4636,22 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4655,7 +4669,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130982585</v>
+        <v>130982587</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4693,10 +4707,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>513767</v>
+        <v>513762</v>
       </c>
       <c r="R34" t="n">
-        <v>7097794</v>
+        <v>7097721</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4731,11 +4745,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4761,14 +4770,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4786,37 +4790,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130982595</v>
+        <v>130983958</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>80384</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4824,10 +4832,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>513525</v>
+        <v>513915</v>
       </c>
       <c r="R35" t="n">
-        <v>7098059</v>
+        <v>7097830</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4862,11 +4870,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Växer på en relativt grov gran i gammal granskog.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4884,17 +4887,22 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4912,7 +4920,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130982592</v>
+        <v>130982585</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4941,16 +4949,19 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>513705</v>
+        <v>513767</v>
       </c>
       <c r="R36" t="n">
-        <v>7098025</v>
+        <v>7097794</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4987,7 +4998,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4996,8 +5007,34 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -5014,10 +5051,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130982559</v>
+        <v>130982595</v>
       </c>
       <c r="B37" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5025,30 +5062,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5056,10 +5089,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>513918</v>
+        <v>513525</v>
       </c>
       <c r="R37" t="n">
-        <v>7097882</v>
+        <v>7098059</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5096,7 +5129,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Fertil lunglav på en gammal sälg med doftticka.</t>
+          <t>Växer på en relativt grov gran i gammal granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5116,22 +5149,17 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5149,32 +5177,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130983958</v>
+        <v>130982562</v>
       </c>
       <c r="B38" t="n">
-        <v>80384</v>
+        <v>80348</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5191,10 +5219,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>513915</v>
+        <v>513609</v>
       </c>
       <c r="R38" t="n">
-        <v>7097830</v>
+        <v>7098065</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5229,6 +5257,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -5246,12 +5279,12 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
@@ -5261,7 +5294,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5279,10 +5312,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130982562</v>
+        <v>130982592</v>
       </c>
       <c r="B39" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5290,41 +5323,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>513609</v>
+        <v>513705</v>
       </c>
       <c r="R39" t="n">
-        <v>7098065</v>
+        <v>7098025</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5361,7 +5387,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5370,34 +5396,8 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5414,37 +5414,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130982578</v>
+        <v>130983930</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>91819</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5452,10 +5456,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>513970</v>
+        <v>513642</v>
       </c>
       <c r="R40" t="n">
-        <v>7097750</v>
+        <v>7098123</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5507,17 +5511,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5535,41 +5539,37 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130983930</v>
+        <v>130983956</v>
       </c>
       <c r="B41" t="n">
-        <v>91819</v>
+        <v>80348</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>513642</v>
+        <v>513648</v>
       </c>
       <c r="R41" t="n">
-        <v>7098123</v>
+        <v>7098140</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5628,21 +5628,6 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5660,7 +5645,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130983956</v>
+        <v>130983937</v>
       </c>
       <c r="B42" t="n">
         <v>80348</v>
@@ -5690,7 +5675,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5698,10 +5687,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>513648</v>
+        <v>513865</v>
       </c>
       <c r="R42" t="n">
-        <v>7098140</v>
+        <v>7097979</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5749,6 +5738,26 @@
       <c r="AH42" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5766,10 +5775,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130983937</v>
+        <v>130982578</v>
       </c>
       <c r="B43" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5777,30 +5786,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -5808,10 +5813,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>513865</v>
+        <v>513970</v>
       </c>
       <c r="R43" t="n">
-        <v>7097979</v>
+        <v>7097750</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5863,22 +5868,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6152,10 +6152,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130982600</v>
+        <v>130983933</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6163,21 +6163,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>513799</v>
+        <v>514081</v>
       </c>
       <c r="R46" t="n">
-        <v>7098152</v>
+        <v>7097679</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6228,11 +6228,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6250,22 +6245,22 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6283,10 +6278,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130983918</v>
+        <v>130982600</v>
       </c>
       <c r="B47" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6294,21 +6289,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6321,10 +6316,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>513544</v>
+        <v>513799</v>
       </c>
       <c r="R47" t="n">
-        <v>7098096</v>
+        <v>7098152</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6359,6 +6354,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
@@ -6386,12 +6386,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983933</v>
+        <v>130983918</v>
       </c>
       <c r="B48" t="n">
-        <v>80348</v>
+        <v>83223</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6420,21 +6420,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>514081</v>
+        <v>513544</v>
       </c>
       <c r="R48" t="n">
-        <v>7097679</v>
+        <v>7098096</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6502,12 +6502,12 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -7017,10 +7017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983962</v>
+        <v>130982576</v>
       </c>
       <c r="B53" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7028,26 +7028,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>514120</v>
+        <v>514066</v>
       </c>
       <c r="R53" t="n">
-        <v>7097669</v>
+        <v>7097722</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7091,6 +7091,11 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7138,10 +7143,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983964</v>
+        <v>130982579</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7149,26 +7154,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7176,10 +7181,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>513717</v>
+        <v>513930</v>
       </c>
       <c r="R54" t="n">
-        <v>7098039</v>
+        <v>7097853</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7239,9 +7244,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7259,10 +7269,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130982576</v>
+        <v>130982560</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7270,26 +7280,30 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7297,10 +7311,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>514066</v>
+        <v>513804</v>
       </c>
       <c r="R55" t="n">
-        <v>7097722</v>
+        <v>7097938</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7337,7 +7351,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På en levande gammal skadad sälg.</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7357,17 +7371,22 @@
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7385,10 +7404,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130982579</v>
+        <v>130983957</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7396,21 +7415,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7423,10 +7442,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>513930</v>
+        <v>513674</v>
       </c>
       <c r="R56" t="n">
-        <v>7097853</v>
+        <v>7098138</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7461,6 +7480,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Växer här på gran.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -7486,14 +7510,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7637,7 +7656,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130982560</v>
+        <v>130983941</v>
       </c>
       <c r="B58" t="n">
         <v>80348</v>
@@ -7679,10 +7698,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>513804</v>
+        <v>513788</v>
       </c>
       <c r="R58" t="n">
-        <v>7097938</v>
+        <v>7097977</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7717,11 +7736,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På en levande gammal skadad sälg.</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -7735,26 +7749,6 @@
       <c r="AH58" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7772,7 +7766,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130983957</v>
+        <v>130983951</v>
       </c>
       <c r="B59" t="n">
         <v>80348</v>
@@ -7810,10 +7804,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>513674</v>
+        <v>513656</v>
       </c>
       <c r="R59" t="n">
-        <v>7098138</v>
+        <v>7098142</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7850,7 +7844,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>Växer här på gran.</t>
+          <t>På björk.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7870,17 +7864,22 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Betula</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7898,10 +7897,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130983941</v>
+        <v>130983925</v>
       </c>
       <c r="B60" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7909,28 +7908,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>513788</v>
+        <v>513740</v>
       </c>
       <c r="R60" t="n">
-        <v>7097977</v>
+        <v>7098029</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7978,19 +7978,43 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8008,10 +8032,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130983951</v>
+        <v>130983922</v>
       </c>
       <c r="B61" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8019,26 +8043,31 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8046,10 +8075,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>513656</v>
+        <v>513814</v>
       </c>
       <c r="R61" t="n">
-        <v>7098142</v>
+        <v>7097864</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8086,7 +8115,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På björk.</t>
+          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8095,7 +8124,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -8106,22 +8134,22 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Betula</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8139,10 +8167,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130983925</v>
+        <v>130983962</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8150,29 +8178,24 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -8182,10 +8205,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>513740</v>
+        <v>514120</v>
       </c>
       <c r="R62" t="n">
-        <v>7098029</v>
+        <v>7097669</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8220,17 +8243,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8249,14 +8268,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8274,10 +8288,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130983922</v>
+        <v>130983964</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8285,29 +8299,24 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -8317,10 +8326,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>513814</v>
+        <v>513717</v>
       </c>
       <c r="R63" t="n">
-        <v>7097864</v>
+        <v>7098039</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8355,17 +8364,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8384,14 +8389,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8409,37 +8409,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130983935</v>
+        <v>130983968</v>
       </c>
       <c r="B64" t="n">
-        <v>80348</v>
+        <v>92407</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8447,10 +8451,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>513918</v>
+        <v>513808</v>
       </c>
       <c r="R64" t="n">
-        <v>7097829</v>
+        <v>7097938</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8485,6 +8489,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Minst 1 fruktkropp.</t>
+        </is>
+      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
@@ -8502,22 +8511,27 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8535,41 +8549,37 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130983968</v>
+        <v>130983935</v>
       </c>
       <c r="B65" t="n">
-        <v>92407</v>
+        <v>80348</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8577,10 +8587,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>513808</v>
+        <v>513918</v>
       </c>
       <c r="R65" t="n">
-        <v>7097938</v>
+        <v>7097829</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8615,11 +8625,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp.</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8637,27 +8642,22 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL65" t="inlineStr">
-        <is>
-          <t>En gammal grovbarkig skadad sälg.</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8922,10 +8922,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130982599</v>
+        <v>130983924</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8933,26 +8933,31 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8960,10 +8965,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>513707</v>
+        <v>513719</v>
       </c>
       <c r="R68" t="n">
-        <v>7098128</v>
+        <v>7097950</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9000,7 +9005,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -9009,7 +9014,6 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -9020,17 +9024,22 @@
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -9048,10 +9057,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130982569</v>
+        <v>130983919</v>
       </c>
       <c r="B69" t="n">
-        <v>80348</v>
+        <v>91808</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9059,28 +9068,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -9090,10 +9099,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>513717</v>
+        <v>513795</v>
       </c>
       <c r="R69" t="n">
-        <v>7098092</v>
+        <v>7097973</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9145,22 +9154,22 @@
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9178,10 +9187,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130983919</v>
+        <v>130982569</v>
       </c>
       <c r="B70" t="n">
-        <v>91808</v>
+        <v>80348</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9189,28 +9198,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -9220,10 +9229,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>513795</v>
+        <v>513717</v>
       </c>
       <c r="R70" t="n">
-        <v>7097973</v>
+        <v>7098092</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9275,22 +9284,22 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9308,10 +9317,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>130983924</v>
+        <v>130982599</v>
       </c>
       <c r="B71" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9319,31 +9328,26 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9351,10 +9355,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>513719</v>
+        <v>513707</v>
       </c>
       <c r="R71" t="n">
-        <v>7097950</v>
+        <v>7098128</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9391,7 +9395,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9400,6 +9404,7 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -9410,22 +9415,17 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM71" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9443,37 +9443,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130982564</v>
+        <v>130982602</v>
       </c>
       <c r="B72" t="n">
-        <v>80348</v>
+        <v>92407</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9481,10 +9485,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>513679</v>
+        <v>513918</v>
       </c>
       <c r="R72" t="n">
-        <v>7098084</v>
+        <v>7097881</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9521,7 +9525,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Växer här på en grovbarkad asp med 64 cm i brösthöjdsdiameter (naturvärdesträd).</t>
+          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9541,22 +9545,22 @@
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Absolut grov bark. # Populus tremula</t>
+          <t>Stem on living tree # Salix caprea</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9574,7 +9578,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130982566</v>
+        <v>130982564</v>
       </c>
       <c r="B73" t="n">
         <v>80348</v>
@@ -9604,11 +9608,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9616,10 +9616,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>513708</v>
+        <v>513679</v>
       </c>
       <c r="R73" t="n">
-        <v>7098087</v>
+        <v>7098084</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9654,6 +9654,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad asp med 64 cm i brösthöjdsdiameter (naturvärdesträd).</t>
+        </is>
+      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
@@ -9686,7 +9691,7 @@
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Absolut grov bark. # Populus tremula</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -9704,39 +9709,39 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130982602</v>
+        <v>130982566</v>
       </c>
       <c r="B74" t="n">
-        <v>92407</v>
+        <v>80348</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9746,10 +9751,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>513918</v>
+        <v>513708</v>
       </c>
       <c r="R74" t="n">
-        <v>7097881</v>
+        <v>7098087</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9784,11 +9789,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
-        </is>
-      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
@@ -9806,22 +9806,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9974,10 +9974,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130982596</v>
+        <v>130983936</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9985,26 +9985,30 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10012,10 +10016,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>513544</v>
+        <v>513887</v>
       </c>
       <c r="R76" t="n">
-        <v>7098021</v>
+        <v>7097928</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10050,11 +10054,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10072,17 +10071,22 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10100,7 +10104,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130983936</v>
+        <v>130982563</v>
       </c>
       <c r="B77" t="n">
         <v>80348</v>
@@ -10142,10 +10146,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>513887</v>
+        <v>513671</v>
       </c>
       <c r="R77" t="n">
-        <v>7097928</v>
+        <v>7098051</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10180,6 +10184,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Växer här på en grov asphögstubbe med ca 70 + cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10197,22 +10206,22 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Bark på dött träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark of dead wood # Populus tremula</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10230,7 +10239,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130982563</v>
+        <v>130983948</v>
       </c>
       <c r="B78" t="n">
         <v>80348</v>
@@ -10260,11 +10269,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -10272,10 +10277,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>513671</v>
+        <v>513581</v>
       </c>
       <c r="R78" t="n">
-        <v>7098051</v>
+        <v>7098038</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10310,11 +10315,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Växer här på en grov asphögstubbe med ca 70 + cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
@@ -10328,26 +10328,6 @@
       <c r="AH78" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM78" t="inlineStr">
-        <is>
-          <t>Bark på dött träd</t>
-        </is>
-      </c>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>Bark of dead wood # Populus tremula</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10365,7 +10345,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130983948</v>
+        <v>130983953</v>
       </c>
       <c r="B79" t="n">
         <v>80348</v>
@@ -10403,10 +10383,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>513581</v>
+        <v>513845</v>
       </c>
       <c r="R79" t="n">
-        <v>7098038</v>
+        <v>7098004</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10454,6 +10434,26 @@
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>130983953</v>
+        <v>130983954</v>
       </c>
       <c r="B80" t="n">
         <v>80348</v>
@@ -10501,7 +10501,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -10509,10 +10513,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>513845</v>
+        <v>513716</v>
       </c>
       <c r="R80" t="n">
-        <v>7098004</v>
+        <v>7098047</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10560,26 +10564,6 @@
       <c r="AH80" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK80" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM80" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO80" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -10597,7 +10581,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>130983954</v>
+        <v>130983940</v>
       </c>
       <c r="B81" t="n">
         <v>80348</v>
@@ -10627,11 +10611,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
@@ -10639,10 +10619,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>513716</v>
+        <v>513786</v>
       </c>
       <c r="R81" t="n">
-        <v>7098047</v>
+        <v>7097956</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10707,10 +10687,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>130983940</v>
+        <v>130982596</v>
       </c>
       <c r="B82" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -10718,21 +10698,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10745,10 +10725,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>513786</v>
+        <v>513544</v>
       </c>
       <c r="R82" t="n">
-        <v>7097956</v>
+        <v>7098021</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10783,6 +10763,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD82" t="b">
         <v>0</v>
       </c>
@@ -10796,6 +10781,21 @@
       <c r="AH82" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr"/>
@@ -10952,45 +10952,48 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>130982591</v>
+        <v>130983970</v>
       </c>
       <c r="B84" t="n">
-        <v>79243</v>
+        <v>79499</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>6459</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>513751</v>
+        <v>513622</v>
       </c>
       <c r="R84" t="n">
-        <v>7097964</v>
+        <v>7097901</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -11025,19 +11028,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
+      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
@@ -11054,48 +11078,45 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>130983970</v>
+        <v>130982591</v>
       </c>
       <c r="B85" t="n">
-        <v>79499</v>
+        <v>79243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6459</v>
+        <v>6425</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>513622</v>
+        <v>513751</v>
       </c>
       <c r="R85" t="n">
-        <v>7097901</v>
+        <v>7097964</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -11130,40 +11151,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
-      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
-      </c>
-      <c r="AH85" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ85" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
@@ -11180,10 +11180,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>130982581</v>
+        <v>130983966</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11191,21 +11191,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>513849</v>
+        <v>514082</v>
       </c>
       <c r="R86" t="n">
-        <v>7098012</v>
+        <v>7097678</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -11256,11 +11256,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -11288,12 +11283,12 @@
       </c>
       <c r="AM86" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -11551,10 +11546,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>130983966</v>
+        <v>130982581</v>
       </c>
       <c r="B89" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -11562,21 +11557,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -11589,10 +11584,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>514082</v>
+        <v>513849</v>
       </c>
       <c r="R89" t="n">
-        <v>7097678</v>
+        <v>7098012</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -11627,6 +11622,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
@@ -11654,12 +11654,12 @@
       </c>
       <c r="AM89" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>130983943</v>
+        <v>130982582</v>
       </c>
       <c r="B90" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11688,21 +11688,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>513818</v>
+        <v>513803</v>
       </c>
       <c r="R90" t="n">
-        <v>7097946</v>
+        <v>7097902</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11753,6 +11753,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD90" t="b">
         <v>0</v>
       </c>
@@ -11766,6 +11771,21 @@
       <c r="AH90" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr"/>
@@ -11783,7 +11803,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>130983947</v>
+        <v>130983943</v>
       </c>
       <c r="B91" t="n">
         <v>80348</v>
@@ -11813,11 +11833,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
@@ -11825,10 +11841,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>513666</v>
+        <v>513818</v>
       </c>
       <c r="R91" t="n">
-        <v>7098043</v>
+        <v>7097946</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11863,11 +11879,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på gran.</t>
-        </is>
-      </c>
       <c r="AD91" t="b">
         <v>0</v>
       </c>
@@ -11881,26 +11892,6 @@
       <c r="AH91" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ91" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK91" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM91" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO91" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -11918,37 +11909,41 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130983971</v>
+        <v>130983947</v>
       </c>
       <c r="B92" t="n">
-        <v>79499</v>
+        <v>80348</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6459</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
@@ -11956,10 +11951,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>513579</v>
+        <v>513666</v>
       </c>
       <c r="R92" t="n">
-        <v>7098048</v>
+        <v>7098043</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11994,6 +11989,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Rikligt med lunglav på gran.</t>
+        </is>
+      </c>
       <c r="AD92" t="b">
         <v>0</v>
       </c>
@@ -12011,22 +12011,22 @@
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr"/>
@@ -12044,32 +12044,32 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>130983945</v>
+        <v>130983971</v>
       </c>
       <c r="B93" t="n">
-        <v>80348</v>
+        <v>79499</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>6459</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -12082,10 +12082,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>513618</v>
+        <v>513579</v>
       </c>
       <c r="R93" t="n">
-        <v>7097900</v>
+        <v>7098048</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -12133,6 +12133,26 @@
       <c r="AH93" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO93" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr"/>
@@ -12150,10 +12170,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>130982582</v>
+        <v>130983945</v>
       </c>
       <c r="B94" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -12161,21 +12181,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -12188,10 +12208,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>513803</v>
+        <v>513618</v>
       </c>
       <c r="R94" t="n">
-        <v>7097902</v>
+        <v>7097900</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -12226,11 +12246,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -12244,21 +12259,6 @@
       <c r="AH94" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr"/>

--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -2691,10 +2691,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983959</v>
+        <v>130983928</v>
       </c>
       <c r="B18" t="n">
-        <v>78255</v>
+        <v>58043</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2702,37 +2702,50 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228579</v>
+        <v>103021</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513749</v>
+        <v>513873</v>
       </c>
       <c r="R18" t="n">
-        <v>7097845</v>
+        <v>7097763</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2767,39 +2780,23 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2817,10 +2814,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130983928</v>
+        <v>130983959</v>
       </c>
       <c r="B19" t="n">
-        <v>58043</v>
+        <v>78255</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2828,50 +2825,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>228579</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>513873</v>
+        <v>513749</v>
       </c>
       <c r="R19" t="n">
-        <v>7097763</v>
+        <v>7097845</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2906,23 +2890,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130983960</v>
+        <v>130983933</v>
       </c>
       <c r="B45" t="n">
-        <v>91804</v>
+        <v>80348</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6038,30 +6038,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6069,10 +6065,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>513513</v>
+        <v>514081</v>
       </c>
       <c r="R45" t="n">
-        <v>7098096</v>
+        <v>7097679</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6124,17 +6120,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6152,10 +6153,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130983933</v>
+        <v>130982600</v>
       </c>
       <c r="B46" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6163,21 +6164,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6190,10 +6191,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>514081</v>
+        <v>513799</v>
       </c>
       <c r="R46" t="n">
-        <v>7097679</v>
+        <v>7098152</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6228,6 +6229,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6245,22 +6251,22 @@
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6278,10 +6284,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130982600</v>
+        <v>130983918</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6289,21 +6295,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6316,10 +6322,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>513799</v>
+        <v>513544</v>
       </c>
       <c r="R47" t="n">
-        <v>7098152</v>
+        <v>7098096</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6354,11 +6360,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
@@ -6386,12 +6387,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6409,10 +6410,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983918</v>
+        <v>130983938</v>
       </c>
       <c r="B48" t="n">
-        <v>83223</v>
+        <v>80348</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6420,26 +6421,30 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6447,10 +6452,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>513544</v>
+        <v>513777</v>
       </c>
       <c r="R48" t="n">
-        <v>7098096</v>
+        <v>7097981</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6498,26 +6503,6 @@
       <c r="AH48" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6535,10 +6520,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983938</v>
+        <v>130983960</v>
       </c>
       <c r="B49" t="n">
-        <v>80348</v>
+        <v>91804</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6546,28 +6531,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6577,10 +6562,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>513777</v>
+        <v>513513</v>
       </c>
       <c r="R49" t="n">
-        <v>7097981</v>
+        <v>7098096</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6628,6 +6613,21 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130983955</v>
+        <v>130983952</v>
       </c>
       <c r="B5" t="n">
         <v>80348</v>
@@ -1084,11 +1084,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1096,10 +1092,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513615</v>
+        <v>513911</v>
       </c>
       <c r="R5" t="n">
-        <v>7098111</v>
+        <v>7097913</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1147,6 +1143,26 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1164,7 +1180,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130983952</v>
+        <v>130983942</v>
       </c>
       <c r="B6" t="n">
         <v>80348</v>
@@ -1202,10 +1218,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513911</v>
+        <v>513807</v>
       </c>
       <c r="R6" t="n">
-        <v>7097913</v>
+        <v>7097941</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1253,26 +1269,6 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,7 +1286,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130983942</v>
+        <v>130983955</v>
       </c>
       <c r="B7" t="n">
         <v>80348</v>
@@ -1320,7 +1316,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513807</v>
+        <v>513615</v>
       </c>
       <c r="R7" t="n">
-        <v>7097941</v>
+        <v>7098111</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130983931</v>
+        <v>130983946</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1677,50 +1677,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513518</v>
+        <v>513642</v>
       </c>
       <c r="R10" t="n">
-        <v>7098104</v>
+        <v>7097903</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1755,17 +1742,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>I ett område med gott om aspar för bohål.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1915,37 +1898,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130983946</v>
+        <v>130982555</v>
       </c>
       <c r="B12" t="n">
-        <v>80348</v>
+        <v>80377</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1953,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>513642</v>
+        <v>513918</v>
       </c>
       <c r="R12" t="n">
-        <v>7097903</v>
+        <v>7097882</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1991,6 +1978,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Växer på en sälg med doftticka.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2004,6 +1996,26 @@
       <c r="AH12" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2021,39 +2033,39 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130982555</v>
+        <v>130983950</v>
       </c>
       <c r="B13" t="n">
-        <v>80377</v>
+        <v>80348</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2063,10 +2075,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>513918</v>
+        <v>513635</v>
       </c>
       <c r="R13" t="n">
-        <v>7097882</v>
+        <v>7098119</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2103,7 +2115,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Växer på en sälg med doftticka.</t>
+          <t>Rikligt med bålar på asp och även gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2123,12 +2135,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2138,7 +2150,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2156,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130983950</v>
+        <v>130983931</v>
       </c>
       <c r="B14" t="n">
-        <v>80348</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2167,41 +2179,50 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>513635</v>
+        <v>513518</v>
       </c>
       <c r="R14" t="n">
-        <v>7098119</v>
+        <v>7098104</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2238,7 +2259,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Rikligt med bålar på asp och även gran.</t>
+          <t>I ett område med gott om aspar för bohål.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2247,33 +2268,12 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130982556</v>
+        <v>130983928</v>
       </c>
       <c r="B17" t="n">
-        <v>80349</v>
+        <v>58043</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2567,41 +2567,50 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>513803</v>
+        <v>513873</v>
       </c>
       <c r="R17" t="n">
-        <v>7097938</v>
+        <v>7097763</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2638,7 +2647,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>På en levande gammal skadad sälg.</t>
+          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2647,33 +2656,12 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2691,10 +2679,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983928</v>
+        <v>130982556</v>
       </c>
       <c r="B18" t="n">
-        <v>58043</v>
+        <v>80349</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2702,50 +2690,41 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513873</v>
+        <v>513803</v>
       </c>
       <c r="R18" t="n">
-        <v>7097763</v>
+        <v>7097938</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2782,7 +2761,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
+          <t>På en levande gammal skadad sälg.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2791,12 +2770,33 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130982597</v>
+        <v>130982575</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2978,10 +2978,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>513607</v>
+        <v>514100</v>
       </c>
       <c r="R20" t="n">
-        <v>7098058</v>
+        <v>7097700</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130982575</v>
+        <v>130982586</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>514100</v>
+        <v>513778</v>
       </c>
       <c r="R21" t="n">
-        <v>7097700</v>
+        <v>7097775</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3135,6 +3135,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3303,7 +3308,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130982586</v>
+        <v>130982597</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3341,10 +3346,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>513778</v>
+        <v>513607</v>
       </c>
       <c r="R23" t="n">
-        <v>7097775</v>
+        <v>7098058</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3377,11 +3382,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3564,10 +3564,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130982593</v>
+        <v>130982568</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3575,26 +3575,30 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3602,10 +3606,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>513648</v>
+        <v>513722</v>
       </c>
       <c r="R25" t="n">
-        <v>7098006</v>
+        <v>7098087</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3657,17 +3661,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3685,10 +3694,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130982568</v>
+        <v>130982593</v>
       </c>
       <c r="B26" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3696,30 +3705,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3727,10 +3732,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>513722</v>
+        <v>513648</v>
       </c>
       <c r="R26" t="n">
-        <v>7098087</v>
+        <v>7098006</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3782,22 +3787,17 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3815,10 +3815,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130983944</v>
+        <v>130982598</v>
       </c>
       <c r="B27" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3826,30 +3826,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3857,10 +3853,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>513823</v>
+        <v>513708</v>
       </c>
       <c r="R27" t="n">
-        <v>7097896</v>
+        <v>7098110</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3895,11 +3891,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apotechier.</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3913,6 +3904,21 @@
       <c r="AH27" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3930,10 +3936,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130982598</v>
+        <v>130983944</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3941,26 +3947,30 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3968,10 +3978,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>513708</v>
+        <v>513823</v>
       </c>
       <c r="R28" t="n">
-        <v>7098110</v>
+        <v>7097896</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4006,6 +4016,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apotechier.</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4019,21 +4034,6 @@
       <c r="AH28" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130982577</v>
+        <v>130982583</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>514014</v>
+        <v>513750</v>
       </c>
       <c r="R31" t="n">
-        <v>7097748</v>
+        <v>7097880</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4391,6 +4391,26 @@
       <c r="AH31" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4408,7 +4428,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130982583</v>
+        <v>130982577</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4446,10 +4466,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>513750</v>
+        <v>514014</v>
       </c>
       <c r="R32" t="n">
-        <v>7097880</v>
+        <v>7097748</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4497,26 +4517,6 @@
       <c r="AH32" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130982587</v>
+        <v>130982585</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>513762</v>
+        <v>513767</v>
       </c>
       <c r="R34" t="n">
-        <v>7097721</v>
+        <v>7097794</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4745,6 +4745,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4770,9 +4775,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4790,41 +4800,37 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130983958</v>
+        <v>130982595</v>
       </c>
       <c r="B35" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4832,10 +4838,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>513915</v>
+        <v>513525</v>
       </c>
       <c r="R35" t="n">
-        <v>7097830</v>
+        <v>7098059</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4870,6 +4876,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Växer på en relativt grov gran i gammal granskog.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4887,22 +4898,17 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4920,10 +4926,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130982585</v>
+        <v>130982562</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4931,26 +4937,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4958,10 +4968,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>513767</v>
+        <v>513609</v>
       </c>
       <c r="R36" t="n">
-        <v>7097794</v>
+        <v>7098065</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4998,7 +5008,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5018,22 +5028,22 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5051,7 +5061,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130982595</v>
+        <v>130982592</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -5080,19 +5090,16 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>513525</v>
+        <v>513705</v>
       </c>
       <c r="R37" t="n">
-        <v>7098059</v>
+        <v>7098025</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5129,7 +5136,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Växer på en relativt grov gran i gammal granskog.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5138,29 +5145,8 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -5177,10 +5163,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130982562</v>
+        <v>130982587</v>
       </c>
       <c r="B38" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5188,30 +5174,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5219,10 +5201,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>513609</v>
+        <v>513762</v>
       </c>
       <c r="R38" t="n">
-        <v>7098065</v>
+        <v>7097721</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5257,11 +5239,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -5279,22 +5256,17 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5312,45 +5284,52 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130982592</v>
+        <v>130983958</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>80384</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>513705</v>
+        <v>513915</v>
       </c>
       <c r="R39" t="n">
-        <v>7098025</v>
+        <v>7097830</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5385,19 +5364,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5645,10 +5645,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130983937</v>
+        <v>130982578</v>
       </c>
       <c r="B42" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5656,30 +5656,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5687,10 +5683,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>513865</v>
+        <v>513970</v>
       </c>
       <c r="R42" t="n">
-        <v>7097979</v>
+        <v>7097750</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5742,22 +5738,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5775,10 +5766,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130982578</v>
+        <v>130982565</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5786,21 +5777,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5813,10 +5804,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>513970</v>
+        <v>513709</v>
       </c>
       <c r="R43" t="n">
-        <v>7097750</v>
+        <v>7098092</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5851,6 +5842,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Växer här på en gran intill en asp med lunglav.</t>
+        </is>
+      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
@@ -5876,9 +5872,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5896,7 +5897,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130982565</v>
+        <v>130983937</v>
       </c>
       <c r="B44" t="n">
         <v>80348</v>
@@ -5926,7 +5927,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5934,10 +5939,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>513709</v>
+        <v>513865</v>
       </c>
       <c r="R44" t="n">
-        <v>7098092</v>
+        <v>7097979</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5972,11 +5977,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Växer här på en gran intill en asp med lunglav.</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
@@ -5994,22 +5994,22 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130982600</v>
+        <v>130983918</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6164,21 +6164,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6191,10 +6191,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>513799</v>
+        <v>513544</v>
       </c>
       <c r="R46" t="n">
-        <v>7098152</v>
+        <v>7098096</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6229,11 +6229,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6261,12 +6256,12 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6284,10 +6279,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130983918</v>
+        <v>130982600</v>
       </c>
       <c r="B47" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6295,21 +6290,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6322,10 +6317,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>513544</v>
+        <v>513799</v>
       </c>
       <c r="R47" t="n">
-        <v>7098096</v>
+        <v>7098152</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6360,6 +6355,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
@@ -6387,12 +6387,12 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983938</v>
+        <v>130983960</v>
       </c>
       <c r="B48" t="n">
-        <v>80348</v>
+        <v>91804</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6421,28 +6421,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -6452,10 +6452,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>513777</v>
+        <v>513513</v>
       </c>
       <c r="R48" t="n">
-        <v>7097981</v>
+        <v>7098096</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6503,6 +6503,21 @@
       <c r="AH48" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6520,10 +6535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983960</v>
+        <v>130983938</v>
       </c>
       <c r="B49" t="n">
-        <v>91804</v>
+        <v>80348</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6531,28 +6546,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -6562,10 +6577,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>513513</v>
+        <v>513777</v>
       </c>
       <c r="R49" t="n">
-        <v>7098096</v>
+        <v>7097981</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6613,21 +6628,6 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6645,41 +6645,37 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130983929</v>
+        <v>130982584</v>
       </c>
       <c r="B50" t="n">
-        <v>91819</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6687,10 +6683,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>513914</v>
+        <v>513738</v>
       </c>
       <c r="R50" t="n">
-        <v>7097909</v>
+        <v>7097832</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6742,17 +6738,22 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6770,37 +6771,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130982589</v>
+        <v>130983929</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>91819</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6808,10 +6813,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>513732</v>
+        <v>513914</v>
       </c>
       <c r="R51" t="n">
-        <v>7097799</v>
+        <v>7097909</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6863,17 +6868,17 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6891,7 +6896,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130982584</v>
+        <v>130982589</v>
       </c>
       <c r="B52" t="n">
         <v>79243</v>
@@ -6929,10 +6934,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>513738</v>
+        <v>513732</v>
       </c>
       <c r="R52" t="n">
-        <v>7097832</v>
+        <v>7097799</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6992,14 +6997,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7017,10 +7017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130982576</v>
+        <v>130983941</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7028,26 +7028,30 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -7055,10 +7059,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>514066</v>
+        <v>513788</v>
       </c>
       <c r="R53" t="n">
-        <v>7097722</v>
+        <v>7097977</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7093,11 +7097,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
@@ -7111,21 +7110,6 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7143,10 +7127,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130982579</v>
+        <v>130983964</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7154,26 +7138,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7181,10 +7165,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>513930</v>
+        <v>513717</v>
       </c>
       <c r="R54" t="n">
-        <v>7097853</v>
+        <v>7098039</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7244,14 +7228,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7269,10 +7248,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130982560</v>
+        <v>130982574</v>
       </c>
       <c r="B55" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7280,30 +7259,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7311,10 +7286,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>513804</v>
+        <v>514157</v>
       </c>
       <c r="R55" t="n">
-        <v>7097938</v>
+        <v>7097713</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7349,11 +7324,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>På en levande gammal skadad sälg.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -7371,22 +7341,22 @@
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM55" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7404,10 +7374,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130983957</v>
+        <v>130982579</v>
       </c>
       <c r="B56" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7415,21 +7385,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7442,10 +7412,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>513674</v>
+        <v>513930</v>
       </c>
       <c r="R56" t="n">
-        <v>7098138</v>
+        <v>7097853</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7480,11 +7450,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Växer här på gran.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -7510,9 +7475,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7530,10 +7500,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130982574</v>
+        <v>130983962</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7541,26 +7511,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7568,10 +7538,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>514157</v>
+        <v>514120</v>
       </c>
       <c r="R57" t="n">
-        <v>7097713</v>
+        <v>7097669</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7631,14 +7601,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7656,10 +7621,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130983941</v>
+        <v>130983925</v>
       </c>
       <c r="B58" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7667,28 +7632,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -7698,10 +7664,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>513788</v>
+        <v>513740</v>
       </c>
       <c r="R58" t="n">
-        <v>7097977</v>
+        <v>7098029</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7736,19 +7702,43 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7766,10 +7756,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130983951</v>
+        <v>130983922</v>
       </c>
       <c r="B59" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7777,26 +7767,31 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7804,10 +7799,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>513656</v>
+        <v>513814</v>
       </c>
       <c r="R59" t="n">
-        <v>7098142</v>
+        <v>7097864</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7844,7 +7839,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>På björk.</t>
+          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7853,7 +7848,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7864,22 +7858,22 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM59" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Betula</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7897,10 +7891,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130983925</v>
+        <v>130982576</v>
       </c>
       <c r="B60" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7908,31 +7902,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7940,10 +7929,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>513740</v>
+        <v>514066</v>
       </c>
       <c r="R60" t="n">
-        <v>7098029</v>
+        <v>7097722</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7980,7 +7969,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7989,6 +7978,7 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -8007,14 +7997,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8032,10 +8017,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130983922</v>
+        <v>130982560</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8043,29 +8028,28 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -8075,10 +8059,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>513814</v>
+        <v>513804</v>
       </c>
       <c r="R61" t="n">
-        <v>7097864</v>
+        <v>7097938</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8115,7 +8099,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
+          <t>På en levande gammal skadad sälg.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8124,6 +8108,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -8134,22 +8119,22 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8167,10 +8152,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130983962</v>
+        <v>130983957</v>
       </c>
       <c r="B62" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8178,26 +8163,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8205,10 +8190,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>514120</v>
+        <v>513674</v>
       </c>
       <c r="R62" t="n">
-        <v>7097669</v>
+        <v>7098138</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8241,6 +8226,11 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Växer här på gran.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8288,10 +8278,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130983964</v>
+        <v>130983951</v>
       </c>
       <c r="B63" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8299,26 +8289,26 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8326,10 +8316,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>513717</v>
+        <v>513656</v>
       </c>
       <c r="R63" t="n">
-        <v>7098039</v>
+        <v>7098142</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8364,6 +8354,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>På björk.</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -8381,17 +8376,22 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Betula</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8409,41 +8409,37 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130983968</v>
+        <v>130982580</v>
       </c>
       <c r="B64" t="n">
-        <v>92407</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>760</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8451,10 +8447,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>513808</v>
+        <v>513904</v>
       </c>
       <c r="R64" t="n">
-        <v>7097938</v>
+        <v>7097941</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8489,11 +8485,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp.</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
@@ -8511,27 +8502,17 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL64" t="inlineStr">
-        <is>
-          <t>En gammal grovbarkig skadad sälg.</t>
-        </is>
-      </c>
-      <c r="AM64" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8549,37 +8530,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130983935</v>
+        <v>130983968</v>
       </c>
       <c r="B65" t="n">
-        <v>80348</v>
+        <v>92407</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8587,10 +8572,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>513918</v>
+        <v>513808</v>
       </c>
       <c r="R65" t="n">
-        <v>7097829</v>
+        <v>7097938</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8625,6 +8610,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Minst 1 fruktkropp.</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8642,22 +8632,27 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8675,7 +8670,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130982580</v>
+        <v>130982588</v>
       </c>
       <c r="B66" t="n">
         <v>79243</v>
@@ -8713,10 +8708,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>513904</v>
+        <v>513723</v>
       </c>
       <c r="R66" t="n">
-        <v>7097941</v>
+        <v>7097741</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8749,6 +8744,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8796,10 +8796,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130982588</v>
+        <v>130983935</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8807,21 +8807,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8834,10 +8834,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>513723</v>
+        <v>513918</v>
       </c>
       <c r="R67" t="n">
-        <v>7097741</v>
+        <v>7097829</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8872,11 +8872,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8894,17 +8889,22 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8922,10 +8922,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130983924</v>
+        <v>130982569</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8933,29 +8933,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -8965,10 +8964,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>513719</v>
+        <v>513717</v>
       </c>
       <c r="R68" t="n">
-        <v>7097950</v>
+        <v>7098092</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9003,17 +9002,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på tall.</t>
-        </is>
-      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -9024,22 +9019,22 @@
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -9187,10 +9182,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130982569</v>
+        <v>130982599</v>
       </c>
       <c r="B70" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9198,30 +9193,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9229,10 +9220,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>513717</v>
+        <v>513707</v>
       </c>
       <c r="R70" t="n">
-        <v>7098092</v>
+        <v>7098128</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9267,6 +9258,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -9284,22 +9280,17 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9317,10 +9308,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>130982599</v>
+        <v>130983924</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9328,26 +9319,31 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -9355,10 +9351,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>513707</v>
+        <v>513719</v>
       </c>
       <c r="R71" t="n">
-        <v>7098128</v>
+        <v>7097950</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9395,7 +9391,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9404,7 +9400,6 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -9415,17 +9410,22 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9443,39 +9443,39 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130982602</v>
+        <v>130982566</v>
       </c>
       <c r="B72" t="n">
-        <v>92407</v>
+        <v>80348</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -9485,10 +9485,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>513918</v>
+        <v>513708</v>
       </c>
       <c r="R72" t="n">
-        <v>7097881</v>
+        <v>7098087</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9523,11 +9523,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
-        </is>
-      </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
@@ -9545,22 +9540,22 @@
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9709,10 +9704,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130982566</v>
+        <v>130983927</v>
       </c>
       <c r="B74" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9720,28 +9715,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9751,10 +9747,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>513708</v>
+        <v>513553</v>
       </c>
       <c r="R74" t="n">
-        <v>7098087</v>
+        <v>7097986</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9789,13 +9785,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9806,22 +9806,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9839,40 +9839,39 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130983927</v>
+        <v>130982602</v>
       </c>
       <c r="B75" t="n">
-        <v>57884</v>
+        <v>92407</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -9882,10 +9881,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>513553</v>
+        <v>513918</v>
       </c>
       <c r="R75" t="n">
-        <v>7097986</v>
+        <v>7097881</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9922,7 +9921,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9931,6 +9930,7 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -9941,12 +9941,12 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM75" t="inlineStr">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Salix caprea</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130983936</v>
+        <v>130983948</v>
       </c>
       <c r="B76" t="n">
         <v>80348</v>
@@ -10004,11 +10004,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10016,10 +10012,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>513887</v>
+        <v>513581</v>
       </c>
       <c r="R76" t="n">
-        <v>7097928</v>
+        <v>7098038</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10067,26 +10063,6 @@
       <c r="AH76" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO76" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10104,7 +10080,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130982563</v>
+        <v>130983954</v>
       </c>
       <c r="B77" t="n">
         <v>80348</v>
@@ -10146,10 +10122,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>513671</v>
+        <v>513716</v>
       </c>
       <c r="R77" t="n">
-        <v>7098051</v>
+        <v>7098047</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10184,11 +10160,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>Växer här på en grov asphögstubbe med ca 70 + cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10202,26 +10173,6 @@
       <c r="AH77" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Bark på dött träd</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>Bark of dead wood # Populus tremula</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10239,7 +10190,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130983948</v>
+        <v>130983936</v>
       </c>
       <c r="B78" t="n">
         <v>80348</v>
@@ -10269,7 +10220,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -10277,10 +10232,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>513581</v>
+        <v>513887</v>
       </c>
       <c r="R78" t="n">
-        <v>7098038</v>
+        <v>7097928</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10328,6 +10283,26 @@
       <c r="AH78" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10345,7 +10320,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130983953</v>
+        <v>130983940</v>
       </c>
       <c r="B79" t="n">
         <v>80348</v>
@@ -10383,10 +10358,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>513845</v>
+        <v>513786</v>
       </c>
       <c r="R79" t="n">
-        <v>7098004</v>
+        <v>7097956</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10434,26 +10409,6 @@
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ79" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM79" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10471,7 +10426,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>130983954</v>
+        <v>130982563</v>
       </c>
       <c r="B80" t="n">
         <v>80348</v>
@@ -10513,10 +10468,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>513716</v>
+        <v>513671</v>
       </c>
       <c r="R80" t="n">
-        <v>7098047</v>
+        <v>7098051</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10551,6 +10506,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Växer här på en grov asphögstubbe med ca 70 + cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
@@ -10564,6 +10524,26 @@
       <c r="AH80" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>Bark på dött träd</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Bark of dead wood # Populus tremula</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -10581,10 +10561,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>130983940</v>
+        <v>130983923</v>
       </c>
       <c r="B81" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10592,37 +10572,46 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>513786</v>
+        <v>513799</v>
       </c>
       <c r="R81" t="n">
-        <v>7097956</v>
+        <v>7097850</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10657,19 +10646,43 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Äldre bohål, 47-50 mm i diameter. Välsnidat och uthackat i en grantickerötad högstubbe, ca 1,8 m över marken.</t>
+        </is>
+      </c>
       <c r="AD81" t="b">
         <v>0</v>
       </c>
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -10813,10 +10826,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>130983923</v>
+        <v>130983953</v>
       </c>
       <c r="B83" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -10824,46 +10837,37 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>513799</v>
+        <v>513845</v>
       </c>
       <c r="R83" t="n">
-        <v>7097850</v>
+        <v>7098004</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10898,17 +10902,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>Äldre bohål, 47-50 mm i diameter. Välsnidat och uthackat i en grantickerötad högstubbe, ca 1,8 m över marken.</t>
-        </is>
-      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
       <c r="AE83" t="b">
         <v>0</v>
       </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM83" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -10952,48 +10952,45 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>130983970</v>
+        <v>130982591</v>
       </c>
       <c r="B84" t="n">
-        <v>79499</v>
+        <v>79243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6459</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>513622</v>
+        <v>513751</v>
       </c>
       <c r="R84" t="n">
-        <v>7097901</v>
+        <v>7097964</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -11028,40 +11025,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
-      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
-      </c>
-      <c r="AH84" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ84" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK84" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM84" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
@@ -11078,45 +11054,48 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>130982591</v>
+        <v>130983970</v>
       </c>
       <c r="B85" t="n">
-        <v>79243</v>
+        <v>79499</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6425</v>
+        <v>6459</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>513751</v>
+        <v>513622</v>
       </c>
       <c r="R85" t="n">
-        <v>7097964</v>
+        <v>7097901</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -11151,19 +11130,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
@@ -11180,10 +11180,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>130983966</v>
+        <v>130982581</v>
       </c>
       <c r="B86" t="n">
-        <v>83089</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11191,21 +11191,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -11218,10 +11218,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>514082</v>
+        <v>513849</v>
       </c>
       <c r="R86" t="n">
-        <v>7097678</v>
+        <v>7098012</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -11256,6 +11256,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -11283,12 +11288,12 @@
       </c>
       <c r="AM86" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -11306,10 +11311,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>130982557</v>
+        <v>130983966</v>
       </c>
       <c r="B87" t="n">
-        <v>80348</v>
+        <v>83089</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -11317,30 +11322,26 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
@@ -11348,10 +11349,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>514098</v>
+        <v>514082</v>
       </c>
       <c r="R87" t="n">
-        <v>7097694</v>
+        <v>7097678</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -11403,12 +11404,12 @@
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
@@ -11418,7 +11419,7 @@
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -11436,7 +11437,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>130983939</v>
+        <v>130982557</v>
       </c>
       <c r="B88" t="n">
         <v>80348</v>
@@ -11478,10 +11479,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>513790</v>
+        <v>514098</v>
       </c>
       <c r="R88" t="n">
-        <v>7097963</v>
+        <v>7097694</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -11529,6 +11530,26 @@
       <c r="AH88" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -11546,10 +11567,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>130982581</v>
+        <v>130983939</v>
       </c>
       <c r="B89" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -11557,26 +11578,30 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
@@ -11584,10 +11609,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>513849</v>
+        <v>513790</v>
       </c>
       <c r="R89" t="n">
-        <v>7098012</v>
+        <v>7097963</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -11622,11 +11647,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
@@ -11640,26 +11660,6 @@
       <c r="AH89" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ89" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK89" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM89" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO89" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>130982582</v>
+        <v>130983945</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11688,21 +11688,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>513803</v>
+        <v>513618</v>
       </c>
       <c r="R90" t="n">
-        <v>7097902</v>
+        <v>7097900</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11753,11 +11753,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD90" t="b">
         <v>0</v>
       </c>
@@ -11771,21 +11766,6 @@
       <c r="AH90" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK90" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO90" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr"/>
@@ -11803,32 +11783,32 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>130983943</v>
+        <v>130983971</v>
       </c>
       <c r="B91" t="n">
-        <v>80348</v>
+        <v>79499</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>6459</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11841,10 +11821,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>513818</v>
+        <v>513579</v>
       </c>
       <c r="R91" t="n">
-        <v>7097946</v>
+        <v>7098048</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11892,6 +11872,26 @@
       <c r="AH91" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130983947</v>
+        <v>130983943</v>
       </c>
       <c r="B92" t="n">
         <v>80348</v>
@@ -11939,11 +11939,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
@@ -11951,10 +11947,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>513666</v>
+        <v>513818</v>
       </c>
       <c r="R92" t="n">
-        <v>7098043</v>
+        <v>7097946</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11989,11 +11985,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på gran.</t>
-        </is>
-      </c>
       <c r="AD92" t="b">
         <v>0</v>
       </c>
@@ -12007,26 +11998,6 @@
       <c r="AH92" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ92" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK92" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM92" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO92" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr"/>
@@ -12044,32 +12015,32 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>130983971</v>
+        <v>130982582</v>
       </c>
       <c r="B93" t="n">
-        <v>79499</v>
+        <v>79243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6459</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -12082,10 +12053,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>513579</v>
+        <v>513803</v>
       </c>
       <c r="R93" t="n">
-        <v>7098048</v>
+        <v>7097902</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -12120,6 +12091,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD93" t="b">
         <v>0</v>
       </c>
@@ -12137,22 +12113,17 @@
       </c>
       <c r="AJ93" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK93" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM93" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr"/>
@@ -12170,10 +12141,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>130983945</v>
+        <v>130983926</v>
       </c>
       <c r="B94" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -12181,26 +12152,31 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
@@ -12208,10 +12184,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>513618</v>
+        <v>513667</v>
       </c>
       <c r="R94" t="n">
-        <v>7097900</v>
+        <v>7097967</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -12246,19 +12222,43 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AH94" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr"/>
@@ -12276,10 +12276,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130983926</v>
+        <v>130983947</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -12287,29 +12287,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -12319,10 +12318,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>513667</v>
+        <v>513666</v>
       </c>
       <c r="R95" t="n">
-        <v>7097967</v>
+        <v>7098043</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -12359,7 +12358,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Rikligt med lunglav på gran.</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -12368,6 +12367,7 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -12388,12 +12388,12 @@
       </c>
       <c r="AM95" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr"/>

--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130983967</v>
+        <v>130983942</v>
       </c>
       <c r="B4" t="n">
-        <v>83089</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -939,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513599</v>
+        <v>513807</v>
       </c>
       <c r="R4" t="n">
-        <v>7098012</v>
+        <v>7097941</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,26 +1017,6 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1054,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130983952</v>
+        <v>130982571</v>
       </c>
       <c r="B5" t="n">
         <v>80348</v>
@@ -1084,7 +1064,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1092,10 +1076,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513911</v>
+        <v>513700</v>
       </c>
       <c r="R5" t="n">
-        <v>7097913</v>
+        <v>7098113</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,6 +1114,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad gammal smal sälg.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1147,12 +1136,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1162,7 +1151,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1180,7 +1169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130983942</v>
+        <v>130983955</v>
       </c>
       <c r="B6" t="n">
         <v>80348</v>
@@ -1210,7 +1199,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1218,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513807</v>
+        <v>513615</v>
       </c>
       <c r="R6" t="n">
-        <v>7097941</v>
+        <v>7098111</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1286,7 +1279,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130983955</v>
+        <v>130983952</v>
       </c>
       <c r="B7" t="n">
         <v>80348</v>
@@ -1316,11 +1309,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1328,10 +1317,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513615</v>
+        <v>513911</v>
       </c>
       <c r="R7" t="n">
-        <v>7098111</v>
+        <v>7097913</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,6 +1368,26 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1531,10 +1540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130982571</v>
+        <v>130983967</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>83089</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1542,30 +1551,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1573,10 +1578,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>513700</v>
+        <v>513599</v>
       </c>
       <c r="R9" t="n">
-        <v>7098113</v>
+        <v>7098012</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1611,11 +1616,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Växer här på en grovbarkad gammal smal sälg.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1633,12 +1633,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130983946</v>
+        <v>130983931</v>
       </c>
       <c r="B10" t="n">
-        <v>80348</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1677,37 +1677,50 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513642</v>
+        <v>513518</v>
       </c>
       <c r="R10" t="n">
-        <v>7097903</v>
+        <v>7098104</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1742,13 +1755,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>I ett område med gott om aspar för bohål.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1772,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130983965</v>
+        <v>130983946</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1783,21 +1800,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1810,10 +1827,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>513657</v>
+        <v>513642</v>
       </c>
       <c r="R11" t="n">
-        <v>7098140</v>
+        <v>7097903</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1861,26 +1878,6 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2168,10 +2165,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130983931</v>
+        <v>130983949</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2179,50 +2176,41 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>513518</v>
+        <v>513607</v>
       </c>
       <c r="R14" t="n">
-        <v>7098104</v>
+        <v>7098113</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2259,7 +2247,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>I ett område med gott om aspar för bohål.</t>
+          <t>Rikligt med lunglavsbålar på asp.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2268,12 +2256,33 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2291,10 +2300,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983949</v>
+        <v>130983965</v>
       </c>
       <c r="B15" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2302,30 +2311,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2333,10 +2338,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>513607</v>
+        <v>513657</v>
       </c>
       <c r="R15" t="n">
-        <v>7098113</v>
+        <v>7098140</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2371,11 +2376,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglavsbålar på asp.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2393,22 +2393,22 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130983928</v>
+        <v>130982556</v>
       </c>
       <c r="B17" t="n">
-        <v>58043</v>
+        <v>80349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2567,50 +2567,41 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>513873</v>
+        <v>513803</v>
       </c>
       <c r="R17" t="n">
-        <v>7097763</v>
+        <v>7097938</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,7 +2638,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
+          <t>På en levande gammal skadad sälg.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2656,12 +2647,33 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2679,10 +2691,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130982556</v>
+        <v>130983928</v>
       </c>
       <c r="B18" t="n">
-        <v>80349</v>
+        <v>58043</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2690,41 +2702,50 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513803</v>
+        <v>513873</v>
       </c>
       <c r="R18" t="n">
-        <v>7097938</v>
+        <v>7097763</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2761,7 +2782,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På en levande gammal skadad sälg.</t>
+          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2770,33 +2791,12 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130982575</v>
+        <v>130982597</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2978,10 +2978,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>514100</v>
+        <v>513607</v>
       </c>
       <c r="R20" t="n">
-        <v>7097700</v>
+        <v>7098058</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130982586</v>
+        <v>130982575</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>513778</v>
+        <v>514100</v>
       </c>
       <c r="R21" t="n">
-        <v>7097775</v>
+        <v>7097700</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3135,11 +3135,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3308,7 +3303,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130982597</v>
+        <v>130982586</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3346,10 +3341,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>513607</v>
+        <v>513778</v>
       </c>
       <c r="R23" t="n">
-        <v>7098058</v>
+        <v>7097775</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3382,6 +3377,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3694,10 +3694,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130982593</v>
+        <v>130983944</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3705,26 +3705,30 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3732,10 +3736,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>513648</v>
+        <v>513823</v>
       </c>
       <c r="R26" t="n">
-        <v>7098006</v>
+        <v>7097896</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3770,6 +3774,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apotechier.</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3783,21 +3792,6 @@
       <c r="AH26" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3815,7 +3809,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130982598</v>
+        <v>130982593</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3853,10 +3847,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>513708</v>
+        <v>513648</v>
       </c>
       <c r="R27" t="n">
-        <v>7098110</v>
+        <v>7098006</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3936,10 +3930,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130983944</v>
+        <v>130982598</v>
       </c>
       <c r="B28" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3947,30 +3941,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3978,10 +3968,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>513823</v>
+        <v>513708</v>
       </c>
       <c r="R28" t="n">
-        <v>7097896</v>
+        <v>7098110</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4016,11 +4006,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apotechier.</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4034,6 +4019,21 @@
       <c r="AH28" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130982583</v>
+        <v>130982577</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>513750</v>
+        <v>514014</v>
       </c>
       <c r="R31" t="n">
-        <v>7097880</v>
+        <v>7097748</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4391,26 +4391,6 @@
       <c r="AH31" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4428,7 +4408,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130982577</v>
+        <v>130982583</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4466,10 +4446,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>514014</v>
+        <v>513750</v>
       </c>
       <c r="R32" t="n">
-        <v>7097748</v>
+        <v>7097880</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4517,6 +4497,26 @@
       <c r="AH32" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4669,37 +4669,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130982585</v>
+        <v>130983958</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>80384</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4707,10 +4711,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>513767</v>
+        <v>513915</v>
       </c>
       <c r="R34" t="n">
-        <v>7097794</v>
+        <v>7097830</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4745,11 +4749,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4767,22 +4766,22 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4800,10 +4799,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130982595</v>
+        <v>130982562</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4811,26 +4810,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4838,10 +4841,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>513525</v>
+        <v>513609</v>
       </c>
       <c r="R35" t="n">
-        <v>7098059</v>
+        <v>7098065</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4878,7 +4881,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Växer på en relativt grov gran i gammal granskog.</t>
+          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4898,17 +4901,22 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4926,10 +4934,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130982562</v>
+        <v>130982587</v>
       </c>
       <c r="B36" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4937,30 +4945,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4968,10 +4972,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>513609</v>
+        <v>513762</v>
       </c>
       <c r="R36" t="n">
-        <v>7098065</v>
+        <v>7097721</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5006,11 +5010,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
-        </is>
-      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -5028,22 +5027,17 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5061,7 +5055,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130982592</v>
+        <v>130982585</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -5090,16 +5084,19 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>513705</v>
+        <v>513767</v>
       </c>
       <c r="R37" t="n">
-        <v>7098025</v>
+        <v>7097794</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5136,7 +5133,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5145,8 +5142,34 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -5163,7 +5186,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130982587</v>
+        <v>130982595</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -5201,10 +5224,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>513762</v>
+        <v>513525</v>
       </c>
       <c r="R38" t="n">
-        <v>7097721</v>
+        <v>7098059</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5237,6 +5260,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Växer på en relativt grov gran i gammal granskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5284,52 +5312,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130983958</v>
+        <v>130982592</v>
       </c>
       <c r="B39" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>513915</v>
+        <v>513705</v>
       </c>
       <c r="R39" t="n">
-        <v>7097830</v>
+        <v>7098025</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5364,40 +5385,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>rönn</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5414,41 +5414,37 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983930</v>
+        <v>130983956</v>
       </c>
       <c r="B40" t="n">
-        <v>91819</v>
+        <v>80348</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5456,10 +5452,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>513642</v>
+        <v>513648</v>
       </c>
       <c r="R40" t="n">
-        <v>7098123</v>
+        <v>7098140</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5507,21 +5503,6 @@
       <c r="AH40" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5539,7 +5520,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130983956</v>
+        <v>130983937</v>
       </c>
       <c r="B41" t="n">
         <v>80348</v>
@@ -5569,7 +5550,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5577,10 +5562,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>513648</v>
+        <v>513865</v>
       </c>
       <c r="R41" t="n">
-        <v>7098140</v>
+        <v>7097979</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5628,6 +5613,26 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5645,10 +5650,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130982578</v>
+        <v>130982565</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5656,21 +5661,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5683,10 +5688,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>513970</v>
+        <v>513709</v>
       </c>
       <c r="R42" t="n">
-        <v>7097750</v>
+        <v>7098092</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5721,6 +5726,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Växer här på en gran intill en asp med lunglav.</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -5746,9 +5756,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5766,10 +5781,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130982565</v>
+        <v>130982578</v>
       </c>
       <c r="B43" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5777,21 +5792,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5804,10 +5819,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>513709</v>
+        <v>513970</v>
       </c>
       <c r="R43" t="n">
-        <v>7098092</v>
+        <v>7097750</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5842,11 +5857,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Växer här på en gran intill en asp med lunglav.</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
@@ -5872,14 +5882,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5897,39 +5902,39 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983937</v>
+        <v>130983930</v>
       </c>
       <c r="B44" t="n">
-        <v>80348</v>
+        <v>91819</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5939,10 +5944,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>513865</v>
+        <v>513642</v>
       </c>
       <c r="R44" t="n">
-        <v>7097979</v>
+        <v>7098123</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5994,22 +5999,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130983918</v>
+        <v>130983938</v>
       </c>
       <c r="B46" t="n">
-        <v>83223</v>
+        <v>80348</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6164,26 +6164,30 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6191,10 +6195,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>513544</v>
+        <v>513777</v>
       </c>
       <c r="R46" t="n">
-        <v>7098096</v>
+        <v>7097981</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6242,26 +6246,6 @@
       <c r="AH46" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6279,10 +6263,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130982600</v>
+        <v>130983960</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6290,26 +6274,30 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6317,10 +6305,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>513799</v>
+        <v>513513</v>
       </c>
       <c r="R47" t="n">
-        <v>7098152</v>
+        <v>7098096</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6355,11 +6343,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
@@ -6385,14 +6368,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6410,10 +6388,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130983960</v>
+        <v>130982600</v>
       </c>
       <c r="B48" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6421,30 +6399,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6452,10 +6426,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>513513</v>
+        <v>513799</v>
       </c>
       <c r="R48" t="n">
-        <v>7098096</v>
+        <v>7098152</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6490,6 +6464,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -6515,9 +6494,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6535,10 +6519,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983938</v>
+        <v>130983918</v>
       </c>
       <c r="B49" t="n">
-        <v>80348</v>
+        <v>83223</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6546,30 +6530,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6577,10 +6557,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>513777</v>
+        <v>513544</v>
       </c>
       <c r="R49" t="n">
-        <v>7097981</v>
+        <v>7098096</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6628,6 +6608,26 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130982584</v>
+        <v>130982589</v>
       </c>
       <c r="B50" t="n">
         <v>79243</v>
@@ -6683,10 +6683,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>513738</v>
+        <v>513732</v>
       </c>
       <c r="R50" t="n">
-        <v>7097832</v>
+        <v>7097799</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6746,14 +6746,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6771,41 +6766,37 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130983929</v>
+        <v>130982584</v>
       </c>
       <c r="B51" t="n">
-        <v>91819</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6813,10 +6804,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>513914</v>
+        <v>513738</v>
       </c>
       <c r="R51" t="n">
-        <v>7097909</v>
+        <v>7097832</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6868,17 +6859,22 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6896,37 +6892,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130982589</v>
+        <v>130983929</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>91819</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6934,10 +6934,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>513732</v>
+        <v>513914</v>
       </c>
       <c r="R52" t="n">
-        <v>7097799</v>
+        <v>7097909</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6989,17 +6989,17 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130983941</v>
+        <v>130982560</v>
       </c>
       <c r="B53" t="n">
         <v>80348</v>
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>513788</v>
+        <v>513804</v>
       </c>
       <c r="R53" t="n">
-        <v>7097977</v>
+        <v>7097938</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7097,6 +7097,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>På en levande gammal skadad sälg.</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
@@ -7110,6 +7115,26 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7127,10 +7152,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983964</v>
+        <v>130983957</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7138,26 +7163,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -7165,10 +7190,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>513717</v>
+        <v>513674</v>
       </c>
       <c r="R54" t="n">
-        <v>7098039</v>
+        <v>7098138</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7201,6 +7226,11 @@
       <c r="AA54" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Växer här på gran.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7248,10 +7278,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130982574</v>
+        <v>130983941</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7259,26 +7289,30 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -7286,10 +7320,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>514157</v>
+        <v>513788</v>
       </c>
       <c r="R55" t="n">
-        <v>7097713</v>
+        <v>7097977</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7337,26 +7371,6 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7374,10 +7388,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130982579</v>
+        <v>130983951</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7385,21 +7399,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7412,10 +7426,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>513930</v>
+        <v>513656</v>
       </c>
       <c r="R56" t="n">
-        <v>7097853</v>
+        <v>7098142</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7450,6 +7464,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>På björk.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -7467,22 +7486,22 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Betula</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7500,10 +7519,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130983962</v>
+        <v>130983925</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7511,24 +7530,29 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7538,10 +7562,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>514120</v>
+        <v>513740</v>
       </c>
       <c r="R57" t="n">
-        <v>7097669</v>
+        <v>7098029</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7576,13 +7600,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7601,9 +7629,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7621,7 +7654,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130983925</v>
+        <v>130983922</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -7654,7 +7687,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -7664,10 +7697,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>513740</v>
+        <v>513814</v>
       </c>
       <c r="R58" t="n">
-        <v>7098029</v>
+        <v>7097864</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7704,7 +7737,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7756,10 +7789,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130983922</v>
+        <v>130983962</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7767,29 +7800,24 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -7799,10 +7827,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>513814</v>
+        <v>514120</v>
       </c>
       <c r="R59" t="n">
-        <v>7097864</v>
+        <v>7097669</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7837,17 +7865,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7866,14 +7890,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7891,10 +7910,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130982576</v>
+        <v>130983964</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7902,26 +7921,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7929,10 +7948,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>514066</v>
+        <v>513717</v>
       </c>
       <c r="R60" t="n">
-        <v>7097722</v>
+        <v>7098039</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7965,11 +7984,6 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -8017,10 +8031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130982560</v>
+        <v>130982576</v>
       </c>
       <c r="B61" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8028,30 +8042,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8059,10 +8069,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>513804</v>
+        <v>514066</v>
       </c>
       <c r="R61" t="n">
-        <v>7097938</v>
+        <v>7097722</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8099,7 +8109,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På en levande gammal skadad sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8119,22 +8129,17 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8152,10 +8157,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130983957</v>
+        <v>130982579</v>
       </c>
       <c r="B62" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8163,21 +8168,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -8190,10 +8195,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>513674</v>
+        <v>513930</v>
       </c>
       <c r="R62" t="n">
-        <v>7098138</v>
+        <v>7097853</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8228,11 +8233,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Växer här på gran.</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -8258,9 +8258,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8278,10 +8283,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130983951</v>
+        <v>130982574</v>
       </c>
       <c r="B63" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8289,21 +8294,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8316,10 +8321,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>513656</v>
+        <v>514157</v>
       </c>
       <c r="R63" t="n">
-        <v>7098142</v>
+        <v>7097713</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8354,11 +8359,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>På björk.</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -8376,22 +8376,22 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM63" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Betula</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8409,10 +8409,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130982580</v>
+        <v>130983935</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8420,21 +8420,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8447,10 +8447,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>513904</v>
+        <v>513918</v>
       </c>
       <c r="R64" t="n">
-        <v>7097941</v>
+        <v>7097829</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8502,17 +8502,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8530,41 +8535,37 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130983968</v>
+        <v>130982580</v>
       </c>
       <c r="B65" t="n">
-        <v>92407</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>760</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8572,10 +8573,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>513808</v>
+        <v>513904</v>
       </c>
       <c r="R65" t="n">
-        <v>7097938</v>
+        <v>7097941</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8610,11 +8611,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp.</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
@@ -8632,27 +8628,17 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL65" t="inlineStr">
-        <is>
-          <t>En gammal grovbarkig skadad sälg.</t>
-        </is>
-      </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8796,37 +8782,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130983935</v>
+        <v>130983968</v>
       </c>
       <c r="B67" t="n">
-        <v>80348</v>
+        <v>92407</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8834,10 +8824,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>513918</v>
+        <v>513808</v>
       </c>
       <c r="R67" t="n">
-        <v>7097829</v>
+        <v>7097938</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8872,6 +8862,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Minst 1 fruktkropp.</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8889,22 +8884,27 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130983919</v>
+        <v>130982599</v>
       </c>
       <c r="B69" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9063,30 +9063,26 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -9094,10 +9090,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>513795</v>
+        <v>513707</v>
       </c>
       <c r="R69" t="n">
-        <v>7097973</v>
+        <v>7098128</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9132,6 +9128,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
@@ -9157,14 +9158,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9182,10 +9178,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130982599</v>
+        <v>130983919</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9193,26 +9189,30 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>513707</v>
+        <v>513795</v>
       </c>
       <c r="R70" t="n">
-        <v>7098128</v>
+        <v>7097973</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9258,11 +9258,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -9288,9 +9283,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>130982566</v>
+        <v>130982564</v>
       </c>
       <c r="B72" t="n">
         <v>80348</v>
@@ -9473,11 +9473,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -9485,10 +9481,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>513708</v>
+        <v>513679</v>
       </c>
       <c r="R72" t="n">
-        <v>7098087</v>
+        <v>7098084</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9523,6 +9519,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad asp med 64 cm i brösthöjdsdiameter (naturvärdesträd).</t>
+        </is>
+      </c>
       <c r="AD72" t="b">
         <v>0</v>
       </c>
@@ -9555,7 +9556,7 @@
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Absolut grov bark. # Populus tremula</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9573,7 +9574,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>130982564</v>
+        <v>130982566</v>
       </c>
       <c r="B73" t="n">
         <v>80348</v>
@@ -9603,7 +9604,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9611,10 +9616,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>513679</v>
+        <v>513708</v>
       </c>
       <c r="R73" t="n">
-        <v>7098084</v>
+        <v>7098087</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9649,11 +9654,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Växer här på en grovbarkad asp med 64 cm i brösthöjdsdiameter (naturvärdesträd).</t>
-        </is>
-      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Absolut grov bark. # Populus tremula</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -9704,40 +9704,39 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130983927</v>
+        <v>130982602</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>92407</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9747,10 +9746,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>513553</v>
+        <v>513918</v>
       </c>
       <c r="R74" t="n">
-        <v>7097986</v>
+        <v>7097881</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9787,7 +9786,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9796,6 +9795,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9806,12 +9806,12 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Salix caprea</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9839,39 +9839,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130982602</v>
+        <v>130983927</v>
       </c>
       <c r="B75" t="n">
-        <v>92407</v>
+        <v>57884</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -9881,10 +9882,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>513918</v>
+        <v>513553</v>
       </c>
       <c r="R75" t="n">
-        <v>7097881</v>
+        <v>7097986</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9921,7 +9922,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9930,7 +9931,6 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -9941,12 +9941,12 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM75" t="inlineStr">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>130983948</v>
+        <v>130983936</v>
       </c>
       <c r="B76" t="n">
         <v>80348</v>
@@ -10004,7 +10004,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10012,10 +10016,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>513581</v>
+        <v>513887</v>
       </c>
       <c r="R76" t="n">
-        <v>7098038</v>
+        <v>7097928</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10063,6 +10067,26 @@
       <c r="AH76" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10080,7 +10104,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>130983954</v>
+        <v>130982563</v>
       </c>
       <c r="B77" t="n">
         <v>80348</v>
@@ -10122,10 +10146,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>513716</v>
+        <v>513671</v>
       </c>
       <c r="R77" t="n">
-        <v>7098047</v>
+        <v>7098051</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10160,6 +10184,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Växer här på en grov asphögstubbe med ca 70 + cm i brösthöjdsdiameter.</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10173,6 +10202,26 @@
       <c r="AH77" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Bark på dött träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Bark of dead wood # Populus tremula</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -10190,7 +10239,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>130983936</v>
+        <v>130983948</v>
       </c>
       <c r="B78" t="n">
         <v>80348</v>
@@ -10220,11 +10269,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -10232,10 +10277,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>513887</v>
+        <v>513581</v>
       </c>
       <c r="R78" t="n">
-        <v>7097928</v>
+        <v>7098038</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10283,26 +10328,6 @@
       <c r="AH78" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM78" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -10320,7 +10345,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130983940</v>
+        <v>130983953</v>
       </c>
       <c r="B79" t="n">
         <v>80348</v>
@@ -10358,10 +10383,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>513786</v>
+        <v>513845</v>
       </c>
       <c r="R79" t="n">
-        <v>7097956</v>
+        <v>7098004</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -10409,6 +10434,26 @@
       <c r="AH79" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>rönn</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -10426,7 +10471,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>130982563</v>
+        <v>130983954</v>
       </c>
       <c r="B80" t="n">
         <v>80348</v>
@@ -10468,10 +10513,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>513671</v>
+        <v>513716</v>
       </c>
       <c r="R80" t="n">
-        <v>7098051</v>
+        <v>7098047</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10506,11 +10551,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Växer här på en grov asphögstubbe med ca 70 + cm i brösthöjdsdiameter.</t>
-        </is>
-      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
@@ -10524,26 +10564,6 @@
       <c r="AH80" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK80" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM80" t="inlineStr">
-        <is>
-          <t>Bark på dött träd</t>
-        </is>
-      </c>
-      <c r="AO80" t="inlineStr">
-        <is>
-          <t>Bark of dead wood # Populus tremula</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -10561,10 +10581,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>130983923</v>
+        <v>130983940</v>
       </c>
       <c r="B81" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -10572,46 +10592,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>513799</v>
+        <v>513786</v>
       </c>
       <c r="R81" t="n">
-        <v>7097850</v>
+        <v>7097956</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10646,43 +10657,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>Äldre bohål, 47-50 mm i diameter. Välsnidat och uthackat i en grantickerötad högstubbe, ca 1,8 m över marken.</t>
-        </is>
-      </c>
       <c r="AD81" t="b">
         <v>0</v>
       </c>
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AH81" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -10826,10 +10813,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>130983953</v>
+        <v>130983923</v>
       </c>
       <c r="B83" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -10837,37 +10824,46 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>513845</v>
+        <v>513799</v>
       </c>
       <c r="R83" t="n">
-        <v>7098004</v>
+        <v>7097850</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10902,13 +10898,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Äldre bohål, 47-50 mm i diameter. Välsnidat och uthackat i en grantickerötad högstubbe, ca 1,8 m över marken.</t>
+        </is>
+      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM83" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -10952,45 +10952,48 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>130982591</v>
+        <v>130983970</v>
       </c>
       <c r="B84" t="n">
-        <v>79243</v>
+        <v>79499</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>6459</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>513751</v>
+        <v>513622</v>
       </c>
       <c r="R84" t="n">
-        <v>7097964</v>
+        <v>7097901</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -11025,19 +11028,40 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
       <c r="AE84" t="b">
         <v>0</v>
       </c>
+      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
@@ -11054,48 +11078,45 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>130983970</v>
+        <v>130982591</v>
       </c>
       <c r="B85" t="n">
-        <v>79499</v>
+        <v>79243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6459</v>
+        <v>6425</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>513622</v>
+        <v>513751</v>
       </c>
       <c r="R85" t="n">
-        <v>7097901</v>
+        <v>7097964</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -11130,40 +11151,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
-      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
-      </c>
-      <c r="AH85" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ85" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
@@ -11180,10 +11180,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>130982581</v>
+        <v>130982557</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11191,26 +11191,30 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -11218,10 +11222,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>513849</v>
+        <v>514098</v>
       </c>
       <c r="R86" t="n">
-        <v>7098012</v>
+        <v>7097694</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -11256,11 +11260,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -11278,22 +11277,22 @@
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AM86" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -11311,10 +11310,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>130983966</v>
+        <v>130983939</v>
       </c>
       <c r="B87" t="n">
-        <v>83089</v>
+        <v>80348</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -11322,26 +11321,30 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
@@ -11349,10 +11352,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>514082</v>
+        <v>513790</v>
       </c>
       <c r="R87" t="n">
-        <v>7097678</v>
+        <v>7097963</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -11400,26 +11403,6 @@
       <c r="AH87" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -11437,10 +11420,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>130982557</v>
+        <v>130983966</v>
       </c>
       <c r="B88" t="n">
-        <v>80348</v>
+        <v>83089</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -11448,30 +11431,26 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
@@ -11479,10 +11458,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>514098</v>
+        <v>514082</v>
       </c>
       <c r="R88" t="n">
-        <v>7097694</v>
+        <v>7097678</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -11534,12 +11513,12 @@
       </c>
       <c r="AJ88" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM88" t="inlineStr">
@@ -11549,7 +11528,7 @@
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -11567,10 +11546,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>130983939</v>
+        <v>130982581</v>
       </c>
       <c r="B89" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -11578,30 +11557,26 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
@@ -11609,10 +11584,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>513790</v>
+        <v>513849</v>
       </c>
       <c r="R89" t="n">
-        <v>7097963</v>
+        <v>7098012</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -11647,6 +11622,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
@@ -11660,6 +11640,26 @@
       <c r="AH89" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>130983945</v>
+        <v>130983943</v>
       </c>
       <c r="B90" t="n">
         <v>80348</v>
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>513618</v>
+        <v>513818</v>
       </c>
       <c r="R90" t="n">
-        <v>7097900</v>
+        <v>7097946</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11783,37 +11783,41 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>130983971</v>
+        <v>130983947</v>
       </c>
       <c r="B91" t="n">
-        <v>79499</v>
+        <v>80348</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6459</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
@@ -11821,10 +11825,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>513579</v>
+        <v>513666</v>
       </c>
       <c r="R91" t="n">
-        <v>7098048</v>
+        <v>7098043</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11859,6 +11863,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Rikligt med lunglav på gran.</t>
+        </is>
+      </c>
       <c r="AD91" t="b">
         <v>0</v>
       </c>
@@ -11876,22 +11885,22 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM91" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -11909,32 +11918,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130983943</v>
+        <v>130983971</v>
       </c>
       <c r="B92" t="n">
-        <v>80348</v>
+        <v>79499</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>6459</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11947,10 +11956,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>513818</v>
+        <v>513579</v>
       </c>
       <c r="R92" t="n">
-        <v>7097946</v>
+        <v>7098048</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11998,6 +12007,26 @@
       <c r="AH92" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr"/>
@@ -12015,10 +12044,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>130982582</v>
+        <v>130983945</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -12026,21 +12055,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -12053,10 +12082,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>513803</v>
+        <v>513618</v>
       </c>
       <c r="R93" t="n">
-        <v>7097902</v>
+        <v>7097900</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -12091,11 +12120,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD93" t="b">
         <v>0</v>
       </c>
@@ -12109,21 +12133,6 @@
       <c r="AH93" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ93" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK93" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO93" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr"/>
@@ -12141,10 +12150,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>130983926</v>
+        <v>130982582</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -12152,31 +12161,26 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
@@ -12184,10 +12188,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>513667</v>
+        <v>513803</v>
       </c>
       <c r="R94" t="n">
-        <v>7097967</v>
+        <v>7097902</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -12224,7 +12228,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -12233,6 +12237,7 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
+      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
@@ -12251,14 +12256,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO94" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr"/>
@@ -12276,10 +12276,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130983947</v>
+        <v>130983926</v>
       </c>
       <c r="B95" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -12287,28 +12287,29 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -12318,10 +12319,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>513666</v>
+        <v>513667</v>
       </c>
       <c r="R95" t="n">
-        <v>7098043</v>
+        <v>7097967</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -12358,7 +12359,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -12367,7 +12368,6 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -12388,12 +12388,12 @@
       </c>
       <c r="AM95" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr"/>

--- a/artfynd/A 63108-2025 artfynd.xlsx
+++ b/artfynd/A 63108-2025 artfynd.xlsx
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130983942</v>
+        <v>130983967</v>
       </c>
       <c r="B4" t="n">
-        <v>80348</v>
+        <v>83089</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -939,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513807</v>
+        <v>513599</v>
       </c>
       <c r="R4" t="n">
-        <v>7097941</v>
+        <v>7098012</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,6 +1017,26 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1034,7 +1054,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130982571</v>
+        <v>130983955</v>
       </c>
       <c r="B5" t="n">
         <v>80348</v>
@@ -1076,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513700</v>
+        <v>513615</v>
       </c>
       <c r="R5" t="n">
-        <v>7098113</v>
+        <v>7098111</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1114,11 +1134,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Växer här på en grovbarkad gammal smal sälg.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1132,26 +1147,6 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1169,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130983955</v>
+        <v>130983952</v>
       </c>
       <c r="B6" t="n">
         <v>80348</v>
@@ -1199,11 +1194,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1211,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>513615</v>
+        <v>513911</v>
       </c>
       <c r="R6" t="n">
-        <v>7098111</v>
+        <v>7097913</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1262,6 +1253,26 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1279,7 +1290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130983952</v>
+        <v>130983942</v>
       </c>
       <c r="B7" t="n">
         <v>80348</v>
@@ -1317,10 +1328,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>513911</v>
+        <v>513807</v>
       </c>
       <c r="R7" t="n">
-        <v>7097913</v>
+        <v>7097941</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,26 +1379,6 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1540,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130983967</v>
+        <v>130982571</v>
       </c>
       <c r="B9" t="n">
-        <v>83089</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1551,26 +1542,30 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1578,10 +1573,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>513599</v>
+        <v>513700</v>
       </c>
       <c r="R9" t="n">
-        <v>7098012</v>
+        <v>7098113</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1616,6 +1611,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Växer här på en grovbarkad gammal smal sälg.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1633,12 +1633,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130983931</v>
+        <v>130983965</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1677,50 +1677,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>513518</v>
+        <v>513657</v>
       </c>
       <c r="R10" t="n">
-        <v>7098104</v>
+        <v>7098140</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1755,23 +1742,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>I ett område med gott om aspar för bohål.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2300,10 +2303,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130983965</v>
+        <v>130983931</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2311,37 +2314,50 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>513657</v>
+        <v>513518</v>
       </c>
       <c r="R15" t="n">
-        <v>7098140</v>
+        <v>7098104</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2376,39 +2392,23 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>I ett område med gott om aspar för bohål.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130982558</v>
+        <v>130983928</v>
       </c>
       <c r="B16" t="n">
-        <v>80348</v>
+        <v>58043</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2437,41 +2437,50 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>513948</v>
+        <v>513873</v>
       </c>
       <c r="R16" t="n">
-        <v>7097782</v>
+        <v>7097763</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2506,39 +2515,23 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2691,10 +2684,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130983928</v>
+        <v>130982558</v>
       </c>
       <c r="B18" t="n">
-        <v>58043</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2702,50 +2695,41 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Naturskog S Lill-Skarvhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>513873</v>
+        <v>513948</v>
       </c>
       <c r="R18" t="n">
-        <v>7097763</v>
+        <v>7097782</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2780,23 +2764,39 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Fyndplats i bitvis flerskiktad gammal granskog med frekvent förekomst av murknande björkhögstubbar för talltitans bohål.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130982568</v>
+        <v>130982593</v>
       </c>
       <c r="B25" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3575,30 +3575,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3606,10 +3602,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>513722</v>
+        <v>513648</v>
       </c>
       <c r="R25" t="n">
-        <v>7098087</v>
+        <v>7098006</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3661,22 +3657,17 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3694,7 +3685,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130983944</v>
+        <v>130982568</v>
       </c>
       <c r="B26" t="n">
         <v>80348</v>
@@ -3726,7 +3717,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -3736,10 +3727,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>513823</v>
+        <v>513722</v>
       </c>
       <c r="R26" t="n">
-        <v>7097896</v>
+        <v>7098087</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3774,11 +3765,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apotechier.</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3792,6 +3778,26 @@
       <c r="AH26" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3809,10 +3815,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130982593</v>
+        <v>130983944</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3820,26 +3826,30 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3847,10 +3857,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>513648</v>
+        <v>513823</v>
       </c>
       <c r="R27" t="n">
-        <v>7098006</v>
+        <v>7097896</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3885,6 +3895,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Fertil lunglav med apotechier.</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3898,21 +3913,6 @@
       <c r="AH27" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130982561</v>
+        <v>130983963</v>
       </c>
       <c r="B29" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4062,28 +4062,24 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -4093,10 +4089,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>513545</v>
+        <v>513798</v>
       </c>
       <c r="R29" t="n">
-        <v>7098028</v>
+        <v>7097846</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4148,22 +4144,17 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4181,10 +4172,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130983963</v>
+        <v>130982561</v>
       </c>
       <c r="B30" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4192,24 +4183,28 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4219,10 +4214,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>513798</v>
+        <v>513545</v>
       </c>
       <c r="R30" t="n">
-        <v>7097846</v>
+        <v>7098028</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4274,17 +4269,22 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4669,41 +4669,37 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130983958</v>
+        <v>130982587</v>
       </c>
       <c r="B34" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4711,10 +4707,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>513915</v>
+        <v>513762</v>
       </c>
       <c r="R34" t="n">
-        <v>7097830</v>
+        <v>7097721</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4766,22 +4762,17 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4799,32 +4790,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130982562</v>
+        <v>130983958</v>
       </c>
       <c r="B35" t="n">
-        <v>80348</v>
+        <v>80384</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4841,10 +4832,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>513609</v>
+        <v>513915</v>
       </c>
       <c r="R35" t="n">
-        <v>7098065</v>
+        <v>7097830</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4879,11 +4870,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4901,12 +4887,12 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
@@ -4916,7 +4902,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4934,7 +4920,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130982587</v>
+        <v>130982585</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4972,10 +4958,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>513762</v>
+        <v>513767</v>
       </c>
       <c r="R36" t="n">
-        <v>7097721</v>
+        <v>7097794</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5010,6 +4996,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -5035,9 +5026,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5055,7 +5051,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130982585</v>
+        <v>130982595</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -5093,10 +5089,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>513767</v>
+        <v>513525</v>
       </c>
       <c r="R37" t="n">
-        <v>7097794</v>
+        <v>7098059</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5133,7 +5129,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Växer på en relativt grov gran i gammal granskog.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5161,14 +5157,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5186,10 +5177,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130982595</v>
+        <v>130982562</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5197,26 +5188,30 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5224,10 +5219,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>513525</v>
+        <v>513609</v>
       </c>
       <c r="R38" t="n">
-        <v>7098059</v>
+        <v>7098065</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5264,7 +5259,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Växer på en relativt grov gran i gammal granskog.</t>
+          <t>Fertil lunglav med apothecier på en grov tvåstammig asp i gammal granskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5284,17 +5279,22 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5414,37 +5414,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130983956</v>
+        <v>130983930</v>
       </c>
       <c r="B40" t="n">
-        <v>80348</v>
+        <v>91819</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5452,10 +5456,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>513648</v>
+        <v>513642</v>
       </c>
       <c r="R40" t="n">
-        <v>7098140</v>
+        <v>7098123</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5503,6 +5507,21 @@
       <c r="AH40" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5520,7 +5539,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130983937</v>
+        <v>130983956</v>
       </c>
       <c r="B41" t="n">
         <v>80348</v>
@@ -5550,11 +5569,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5562,10 +5577,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>513865</v>
+        <v>513648</v>
       </c>
       <c r="R41" t="n">
-        <v>7097979</v>
+        <v>7098140</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5613,26 +5628,6 @@
       <c r="AH41" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5650,7 +5645,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130982565</v>
+        <v>130983937</v>
       </c>
       <c r="B42" t="n">
         <v>80348</v>
@@ -5680,7 +5675,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5688,10 +5687,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>513709</v>
+        <v>513865</v>
       </c>
       <c r="R42" t="n">
-        <v>7098092</v>
+        <v>7097979</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5726,11 +5725,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Växer här på en gran intill en asp med lunglav.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -5748,22 +5742,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5902,41 +5896,37 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130983930</v>
+        <v>130982565</v>
       </c>
       <c r="B44" t="n">
-        <v>91819</v>
+        <v>80348</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5944,10 +5934,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>513642</v>
+        <v>513709</v>
       </c>
       <c r="R44" t="n">
-        <v>7098123</v>
+        <v>7098092</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5982,6 +5972,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Växer här på en gran intill en asp med lunglav.</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
@@ -5999,17 +5994,22 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130983938</v>
+        <v>130982600</v>
       </c>
       <c r="B46" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6164,30 +6164,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6195,10 +6191,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>513777</v>
+        <v>513799</v>
       </c>
       <c r="R46" t="n">
-        <v>7097981</v>
+        <v>7098152</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6233,6 +6229,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Växer på en stående död gran.</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
@@ -6246,6 +6247,26 @@
       <c r="AH46" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6263,10 +6284,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130983960</v>
+        <v>130983918</v>
       </c>
       <c r="B47" t="n">
-        <v>91804</v>
+        <v>83223</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6274,30 +6295,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -6305,7 +6322,7 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>513513</v>
+        <v>513544</v>
       </c>
       <c r="R47" t="n">
         <v>7098096</v>
@@ -6368,9 +6385,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6388,10 +6410,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130982600</v>
+        <v>130983938</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6399,26 +6421,30 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6426,10 +6452,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>513799</v>
+        <v>513777</v>
       </c>
       <c r="R48" t="n">
-        <v>7098152</v>
+        <v>7097981</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6464,11 +6490,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Växer på en stående död gran.</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -6482,26 +6503,6 @@
       <c r="AH48" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6519,10 +6520,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130983918</v>
+        <v>130983960</v>
       </c>
       <c r="B49" t="n">
-        <v>83223</v>
+        <v>91804</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6530,26 +6531,30 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6557,7 +6562,7 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>513544</v>
+        <v>513513</v>
       </c>
       <c r="R49" t="n">
         <v>7098096</v>
@@ -6620,14 +6625,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6645,37 +6645,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130982589</v>
+        <v>130983929</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>91819</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6683,10 +6687,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>513732</v>
+        <v>513914</v>
       </c>
       <c r="R50" t="n">
-        <v>7097799</v>
+        <v>7097909</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6738,17 +6742,17 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6766,7 +6770,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130982584</v>
+        <v>130982589</v>
       </c>
       <c r="B51" t="n">
         <v>79243</v>
@@ -6804,10 +6808,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>513738</v>
+        <v>513732</v>
       </c>
       <c r="R51" t="n">
-        <v>7097832</v>
+        <v>7097799</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6867,14 +6871,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6892,41 +6891,37 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130983929</v>
+        <v>130982584</v>
       </c>
       <c r="B52" t="n">
-        <v>91819</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6934,10 +6929,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>513914</v>
+        <v>513738</v>
       </c>
       <c r="R52" t="n">
-        <v>7097909</v>
+        <v>7097832</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6989,17 +6984,22 @@
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -7017,10 +7017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130982560</v>
+        <v>130982576</v>
       </c>
       <c r="B53" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7028,30 +7028,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -7059,10 +7055,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>513804</v>
+        <v>514066</v>
       </c>
       <c r="R53" t="n">
-        <v>7097938</v>
+        <v>7097722</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7099,7 +7095,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>På en levande gammal skadad sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -7119,22 +7115,17 @@
       </c>
       <c r="AJ53" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM53" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -7152,10 +7143,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130983957</v>
+        <v>130982579</v>
       </c>
       <c r="B54" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7163,21 +7154,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -7190,10 +7181,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>513674</v>
+        <v>513930</v>
       </c>
       <c r="R54" t="n">
-        <v>7098138</v>
+        <v>7097853</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7228,11 +7219,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Växer här på gran.</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
@@ -7258,9 +7244,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -7278,7 +7269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130983941</v>
+        <v>130982560</v>
       </c>
       <c r="B55" t="n">
         <v>80348</v>
@@ -7320,10 +7311,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>513788</v>
+        <v>513804</v>
       </c>
       <c r="R55" t="n">
-        <v>7097977</v>
+        <v>7097938</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7358,6 +7349,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>På en levande gammal skadad sälg.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
@@ -7371,6 +7367,26 @@
       <c r="AH55" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7388,7 +7404,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130983951</v>
+        <v>130983957</v>
       </c>
       <c r="B56" t="n">
         <v>80348</v>
@@ -7426,10 +7442,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>513656</v>
+        <v>513674</v>
       </c>
       <c r="R56" t="n">
-        <v>7098142</v>
+        <v>7098138</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7466,7 +7482,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>På björk.</t>
+          <t>Växer här på gran.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7486,22 +7502,17 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>björkar</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Betula</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Betula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7519,10 +7530,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130983925</v>
+        <v>130983941</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7530,29 +7541,28 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7562,10 +7572,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>513740</v>
+        <v>513788</v>
       </c>
       <c r="R57" t="n">
-        <v>7098029</v>
+        <v>7097977</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7600,43 +7610,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7654,10 +7640,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130983922</v>
+        <v>130983951</v>
       </c>
       <c r="B58" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7665,31 +7651,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7697,10 +7678,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>513814</v>
+        <v>513656</v>
       </c>
       <c r="R58" t="n">
-        <v>7097864</v>
+        <v>7098142</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7737,7 +7718,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
+          <t>På björk.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7746,6 +7727,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7756,22 +7738,22 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>björkar</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="AM58" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Betula</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7910,10 +7892,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130983964</v>
+        <v>130982574</v>
       </c>
       <c r="B60" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7921,26 +7903,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7948,10 +7930,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>513717</v>
+        <v>514157</v>
       </c>
       <c r="R60" t="n">
-        <v>7098039</v>
+        <v>7097713</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8011,9 +7993,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8031,10 +8018,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130982576</v>
+        <v>130983964</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8042,26 +8029,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8069,10 +8056,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>514066</v>
+        <v>513717</v>
       </c>
       <c r="R61" t="n">
-        <v>7097722</v>
+        <v>7098039</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8105,11 +8092,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8157,10 +8139,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130982579</v>
+        <v>130983922</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8168,26 +8150,31 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8195,10 +8182,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>513930</v>
+        <v>513814</v>
       </c>
       <c r="R62" t="n">
-        <v>7097853</v>
+        <v>7097864</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8233,13 +8220,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, längs flera meter på en gran ca 30 m från ett gammalt bohål i en yta med mycket högt livsmiljövärde för tretåig hackspett baserat på volym stående död ved av gran.</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8260,12 +8251,12 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8283,10 +8274,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130982574</v>
+        <v>130983925</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8294,26 +8285,31 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8321,10 +8317,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>514157</v>
+        <v>513740</v>
       </c>
       <c r="R63" t="n">
-        <v>7097713</v>
+        <v>7098029</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8359,13 +8355,17 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="AM63" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8409,37 +8409,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>130983935</v>
+        <v>130983968</v>
       </c>
       <c r="B64" t="n">
-        <v>80348</v>
+        <v>92407</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8447,10 +8451,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>513918</v>
+        <v>513808</v>
       </c>
       <c r="R64" t="n">
-        <v>7097829</v>
+        <v>7097938</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8485,6 +8489,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Minst 1 fruktkropp.</t>
+        </is>
+      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
@@ -8502,22 +8511,27 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8535,7 +8549,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>130982580</v>
+        <v>130982588</v>
       </c>
       <c r="B65" t="n">
         <v>79243</v>
@@ -8573,10 +8587,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>513904</v>
+        <v>513723</v>
       </c>
       <c r="R65" t="n">
-        <v>7097941</v>
+        <v>7097741</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8609,6 +8623,11 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8656,10 +8675,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>130982588</v>
+        <v>130983935</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8667,21 +8686,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8694,10 +8713,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>513723</v>
+        <v>513918</v>
       </c>
       <c r="R66" t="n">
-        <v>7097741</v>
+        <v>7097829</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8732,11 +8751,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -8754,17 +8768,22 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -8782,41 +8801,37 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130983968</v>
+        <v>130982580</v>
       </c>
       <c r="B67" t="n">
-        <v>92407</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>760</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8824,10 +8839,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>513808</v>
+        <v>513904</v>
       </c>
       <c r="R67" t="n">
-        <v>7097938</v>
+        <v>7097941</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8862,11 +8877,6 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Minst 1 fruktkropp.</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -8884,27 +8894,17 @@
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>En gammal grovbarkig skadad sälg.</t>
-        </is>
-      </c>
-      <c r="AM67" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea # En gammal grovbarkig skadad sälg.</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -9704,39 +9704,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>130982602</v>
+        <v>130983927</v>
       </c>
       <c r="B74" t="n">
-        <v>92407</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -9746,10 +9747,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>513918</v>
+        <v>513553</v>
       </c>
       <c r="R74" t="n">
-        <v>7097881</v>
+        <v>7097986</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9795,7 +9796,6 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9806,12 +9806,12 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9839,40 +9839,39 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>130983927</v>
+        <v>130982602</v>
       </c>
       <c r="B75" t="n">
-        <v>57884</v>
+        <v>92407</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -9882,10 +9881,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>513553</v>
+        <v>513918</v>
       </c>
       <c r="R75" t="n">
-        <v>7097986</v>
+        <v>7097881</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9922,7 +9921,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Minst 1 fruktkropp i en gammal lunglavssälg.</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9931,6 +9930,7 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -9941,12 +9941,12 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM75" t="inlineStr">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Stem on living tree # Salix caprea</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -11180,10 +11180,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>130982557</v>
+        <v>130983966</v>
       </c>
       <c r="B86" t="n">
-        <v>80348</v>
+        <v>83089</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -11191,30 +11191,26 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -11222,10 +11218,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>514098</v>
+        <v>514082</v>
       </c>
       <c r="R86" t="n">
-        <v>7097694</v>
+        <v>7097678</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -11277,12 +11273,12 @@
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM86" t="inlineStr">
@@ -11292,7 +11288,7 @@
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Populus tremula</t>
+          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -11310,7 +11306,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>130983939</v>
+        <v>130982557</v>
       </c>
       <c r="B87" t="n">
         <v>80348</v>
@@ -11352,10 +11348,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>513790</v>
+        <v>514098</v>
       </c>
       <c r="R87" t="n">
-        <v>7097963</v>
+        <v>7097694</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -11403,6 +11399,26 @@
       <c r="AH87" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Populus tremula</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -11420,10 +11436,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>130983966</v>
+        <v>130983939</v>
       </c>
       <c r="B88" t="n">
-        <v>83089</v>
+        <v>80348</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -11431,26 +11447,30 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
@@ -11458,10 +11478,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>514082</v>
+        <v>513790</v>
       </c>
       <c r="R88" t="n">
-        <v>7097678</v>
+        <v>7097963</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -11509,26 +11529,6 @@
       <c r="AH88" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Picea abies</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>130983943</v>
+        <v>130983926</v>
       </c>
       <c r="B90" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11688,26 +11688,31 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
@@ -11715,10 +11720,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>513818</v>
+        <v>513667</v>
       </c>
       <c r="R90" t="n">
-        <v>7097946</v>
+        <v>7097967</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11753,19 +11758,43 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD90" t="b">
         <v>0</v>
       </c>
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
       <c r="AH90" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr"/>
@@ -11783,10 +11812,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>130983947</v>
+        <v>130983921</v>
       </c>
       <c r="B91" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -11794,28 +11823,29 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -11825,10 +11855,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>513666</v>
+        <v>513913</v>
       </c>
       <c r="R91" t="n">
-        <v>7098043</v>
+        <v>7097903</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11865,7 +11895,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på gran.</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11874,7 +11904,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11885,22 +11914,22 @@
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM91" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -11918,32 +11947,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>130983971</v>
+        <v>130982582</v>
       </c>
       <c r="B92" t="n">
-        <v>79499</v>
+        <v>79243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6459</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Flot.) Kullh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11956,10 +11985,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>513579</v>
+        <v>513803</v>
       </c>
       <c r="R92" t="n">
-        <v>7098048</v>
+        <v>7097902</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11994,6 +12023,11 @@
           <t>2026-01-31</t>
         </is>
       </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD92" t="b">
         <v>0</v>
       </c>
@@ -12011,22 +12045,17 @@
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM92" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr"/>
@@ -12044,7 +12073,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>130983945</v>
+        <v>130983943</v>
       </c>
       <c r="B93" t="n">
         <v>80348</v>
@@ -12082,10 +12111,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>513618</v>
+        <v>513818</v>
       </c>
       <c r="R93" t="n">
-        <v>7097900</v>
+        <v>7097946</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -12150,10 +12179,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>130982582</v>
+        <v>130983947</v>
       </c>
       <c r="B94" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -12161,26 +12190,30 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
@@ -12188,10 +12221,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>513803</v>
+        <v>513666</v>
       </c>
       <c r="R94" t="n">
-        <v>7097902</v>
+        <v>7098043</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -12228,7 +12261,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Rikligt med lunglav på gran.</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -12256,9 +12289,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO94" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr"/>
@@ -12276,42 +12314,37 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130983926</v>
+        <v>130983971</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>79499</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>6459</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lopadium disciforme</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Flot.) Kullh.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
@@ -12319,10 +12352,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>513667</v>
+        <v>513579</v>
       </c>
       <c r="R95" t="n">
-        <v>7097967</v>
+        <v>7098048</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -12357,17 +12390,13 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -12378,22 +12407,22 @@
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM95" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr"/>
@@ -12411,10 +12440,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130983921</v>
+        <v>130983945</v>
       </c>
       <c r="B96" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -12422,31 +12451,26 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -12454,10 +12478,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>513913</v>
+        <v>513618</v>
       </c>
       <c r="R96" t="n">
-        <v>7097903</v>
+        <v>7097900</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -12492,43 +12516,19 @@
           <t>2026-01-31</t>
         </is>
       </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på tall.</t>
-        </is>
-      </c>
       <c r="AD96" t="b">
         <v>0</v>
       </c>
       <c r="AE96" t="b">
         <v>0</v>
       </c>
+      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
       <c r="AH96" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ96" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK96" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM96" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO96" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr"/>
